--- a/teaching/traditional_assets/database/data/tunisia/tunisia_computer_services.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_computer_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bvmt_aetec" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.09230000000000001</v>
+        <v>-0.0863</v>
       </c>
       <c r="G2">
-        <v>-0.2012820512820513</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="H2">
-        <v>-0.2012820512820513</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="I2">
-        <v>-0.138034188034188</v>
+        <v>0.005038759689922481</v>
       </c>
       <c r="J2">
-        <v>-0.138034188034188</v>
+        <v>0.005038759689922481</v>
       </c>
       <c r="K2">
-        <v>-0.464</v>
+        <v>-0.082</v>
       </c>
       <c r="L2">
-        <v>-0.1982905982905983</v>
+        <v>-0.03178294573643411</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="V2">
-        <v>0.04961832061068702</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="W2">
-        <v>0.3114093959731544</v>
+        <v>0.05093167701863354</v>
       </c>
       <c r="X2">
-        <v>0.3758088299088148</v>
+        <v>0.2348989350632334</v>
       </c>
       <c r="Y2">
-        <v>-0.06439943393566039</v>
+        <v>-0.1839672580445999</v>
       </c>
       <c r="Z2">
-        <v>-13.92857142857144</v>
+        <v>-3.028169014084507</v>
       </c>
       <c r="AA2">
-        <v>1.922619047619049</v>
+        <v>-0.01525821596244131</v>
       </c>
       <c r="AB2">
-        <v>0.1347979116069778</v>
+        <v>0.1252993639956859</v>
       </c>
       <c r="AC2">
-        <v>1.787821136012071</v>
+        <v>-0.1405575799581273</v>
       </c>
       <c r="AD2">
-        <v>0.846</v>
+        <v>0.831</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.846</v>
+        <v>0.831</v>
       </c>
       <c r="AG2">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="AH2">
-        <v>0.763537906137184</v>
+        <v>0.6229385307346326</v>
       </c>
       <c r="AI2">
-        <v>-0.8685831622176591</v>
+        <v>-0.8235877106045588</v>
       </c>
       <c r="AJ2">
-        <v>0.7607305936073059</v>
+        <v>0.6226556639159789</v>
       </c>
       <c r="AK2">
-        <v>-0.8439716312056736</v>
+        <v>-0.8217821782178215</v>
       </c>
       <c r="AL2">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="AM2">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="AN2">
-        <v>-3.510373443983402</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="AO2">
-        <v>-2.808695652173913</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="AP2">
-        <v>-3.45643153526971</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="AQ2">
-        <v>-2.808695652173913</v>
+        <v>0.1074380165289256</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.09230000000000001</v>
+        <v>-0.0863</v>
       </c>
       <c r="G3">
-        <v>-0.2012820512820513</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="H3">
-        <v>-0.2012820512820513</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="I3">
-        <v>-0.138034188034188</v>
+        <v>0.005038759689922481</v>
       </c>
       <c r="J3">
-        <v>-0.138034188034188</v>
+        <v>0.005038759689922481</v>
       </c>
       <c r="K3">
-        <v>-0.464</v>
+        <v>-0.082</v>
       </c>
       <c r="L3">
-        <v>-0.1982905982905983</v>
+        <v>-0.03178294573643411</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8777 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0.04961832061068702</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="W3">
-        <v>0.3114093959731544</v>
+        <v>0.05093167701863354</v>
       </c>
       <c r="X3">
-        <v>0.3758088299088148</v>
+        <v>0.2348989350632334</v>
       </c>
       <c r="Y3">
-        <v>-0.06439943393566039</v>
+        <v>-0.1839672580445999</v>
       </c>
       <c r="Z3">
-        <v>-13.92857142857144</v>
+        <v>-3.028169014084507</v>
       </c>
       <c r="AA3">
-        <v>1.922619047619049</v>
+        <v>-0.01525821596244131</v>
       </c>
       <c r="AB3">
-        <v>0.1347979116069778</v>
+        <v>0.1252993639956859</v>
       </c>
       <c r="AC3">
-        <v>1.787821136012071</v>
+        <v>-0.1405575799581273</v>
       </c>
       <c r="AD3">
-        <v>0.846</v>
+        <v>0.831</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.846</v>
+        <v>0.831</v>
       </c>
       <c r="AG3">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="AH3">
-        <v>0.763537906137184</v>
+        <v>0.6229385307346326</v>
       </c>
       <c r="AI3">
-        <v>-0.8685831622176591</v>
+        <v>-0.8235877106045588</v>
       </c>
       <c r="AJ3">
-        <v>0.7607305936073059</v>
+        <v>0.6226556639159789</v>
       </c>
       <c r="AK3">
-        <v>-0.8439716312056736</v>
+        <v>-0.8217821782178215</v>
       </c>
       <c r="AL3">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="AM3">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="AN3">
-        <v>-3.510373443983402</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="AO3">
-        <v>-2.808695652173913</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="AP3">
-        <v>-3.45643153526971</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="AQ3">
-        <v>-2.808695652173913</v>
+        <v>0.1074380165289256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Advanced e-Technologies S.A (BVMT:AETEC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BVMT:AETEC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computer Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.622938530734633</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.503</v>
+      </c>
+      <c r="H2">
+        <v>1.27717021108802</v>
+      </c>
+      <c r="I2">
+        <v>1.333</v>
+      </c>
+      <c r="J2">
+        <v>1.28951021108802</v>
+      </c>
+      <c r="K2">
+        <v>0.831</v>
+      </c>
+      <c r="L2">
+        <v>0.01334</v>
+      </c>
+      <c r="M2">
+        <v>0.125299363995686</v>
+      </c>
+      <c r="N2">
+        <v>0.129211537633954</v>
+      </c>
+      <c r="O2">
+        <v>0.058959310750227</v>
+      </c>
+      <c r="P2">
+        <v>1.30813778110945</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.234898935063233</v>
+      </c>
+      <c r="T2">
+        <v>0.117303191740262</v>
+      </c>
+      <c r="U2">
+        <v>2.2448237002051</v>
+      </c>
+      <c r="V2">
+        <v>1.07468647601718</v>
+      </c>
+      <c r="W2">
+        <v>-24.48421951245389</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.503</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07861241433363596</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.09</v>
+      </c>
+      <c r="AH2">
+        <v>0.15</v>
+      </c>
+      <c r="AI2">
+        <v>0.01899999999999996</v>
+      </c>
+      <c r="AJ2">
+        <v>0.831</v>
+      </c>
+      <c r="AK2">
+        <v>0.8309999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.121</v>
+      </c>
+      <c r="AN2">
+        <v>0.001</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.831</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.001</v>
+      </c>
+      <c r="H2">
+        <v>0.503</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.09</v>
+      </c>
+      <c r="K2">
+        <v>0.15</v>
+      </c>
+      <c r="L2">
+        <v>-0.06</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.06</v>
+      </c>
+      <c r="O2">
+        <v>-0.015</v>
+      </c>
+      <c r="P2">
+        <v>-0.045</v>
+      </c>
+      <c r="Q2">
+        <v>0.105</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1292115376339538</v>
+      </c>
+      <c r="C3">
+        <v>1.277170211088024</v>
+      </c>
+      <c r="D3">
+        <v>1.289510211088024</v>
+      </c>
+      <c r="E3">
+        <v>-0.8176599999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.01334</v>
+      </c>
+      <c r="G3">
+        <v>0.001</v>
+      </c>
+      <c r="H3">
+        <v>0.503</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.09</v>
+      </c>
+      <c r="K3">
+        <v>0.15</v>
+      </c>
+      <c r="L3">
+        <v>-0.06</v>
+      </c>
+      <c r="M3">
+        <v>0.002450558</v>
+      </c>
+      <c r="N3">
+        <v>-0.062450558</v>
+      </c>
+      <c r="O3">
+        <v>-0.0156126395</v>
+      </c>
+      <c r="P3">
+        <v>-0.0468379185</v>
+      </c>
+      <c r="Q3">
+        <v>0.1031620815</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.117303191740262</v>
+      </c>
+      <c r="T3">
+        <v>1.074686476017183</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-6.121054878113473</v>
+      </c>
+      <c r="W3">
+        <v>1.308137781109445</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-24.48421951245389</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1309555376339539</v>
+      </c>
+      <c r="C4">
+        <v>1.245344362832565</v>
+      </c>
+      <c r="D4">
+        <v>1.271024362832565</v>
+      </c>
+      <c r="E4">
+        <v>-0.8043199999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.02668</v>
+      </c>
+      <c r="G4">
+        <v>0.001</v>
+      </c>
+      <c r="H4">
+        <v>0.503</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.09</v>
+      </c>
+      <c r="K4">
+        <v>0.15</v>
+      </c>
+      <c r="L4">
+        <v>-0.06</v>
+      </c>
+      <c r="M4">
+        <v>0.004901116</v>
+      </c>
+      <c r="N4">
+        <v>-0.06490111599999999</v>
+      </c>
+      <c r="O4">
+        <v>-0.016225279</v>
+      </c>
+      <c r="P4">
+        <v>-0.048675837</v>
+      </c>
+      <c r="Q4">
+        <v>0.101324163</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1184052651253668</v>
+      </c>
+      <c r="T4">
+        <v>1.085652664547971</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-3.060527439056737</v>
+      </c>
+      <c r="W4">
+        <v>0.7459188905547225</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-12.24210975622695</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1326995376339539</v>
+      </c>
+      <c r="C5">
+        <v>1.214041033866492</v>
+      </c>
+      <c r="D5">
+        <v>1.253061033866492</v>
+      </c>
+      <c r="E5">
+        <v>-0.79098</v>
+      </c>
+      <c r="F5">
+        <v>0.04002</v>
+      </c>
+      <c r="G5">
+        <v>0.001</v>
+      </c>
+      <c r="H5">
+        <v>0.503</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.09</v>
+      </c>
+      <c r="K5">
+        <v>0.15</v>
+      </c>
+      <c r="L5">
+        <v>-0.06</v>
+      </c>
+      <c r="M5">
+        <v>0.007351674</v>
+      </c>
+      <c r="N5">
+        <v>-0.067351674</v>
+      </c>
+      <c r="O5">
+        <v>-0.0168379185</v>
+      </c>
+      <c r="P5">
+        <v>-0.0505137555</v>
+      </c>
+      <c r="Q5">
+        <v>0.09948624449999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.119530061673051</v>
+      </c>
+      <c r="T5">
+        <v>1.096844960058775</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-2.040351626037825</v>
+      </c>
+      <c r="W5">
+        <v>0.5585125937031484</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-8.1614065041513</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1344435376339539</v>
+      </c>
+      <c r="C6">
+        <v>1.18323837870762</v>
+      </c>
+      <c r="D6">
+        <v>1.23559837870762</v>
+      </c>
+      <c r="E6">
+        <v>-0.77764</v>
+      </c>
+      <c r="F6">
+        <v>0.05336</v>
+      </c>
+      <c r="G6">
+        <v>0.001</v>
+      </c>
+      <c r="H6">
+        <v>0.503</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.09</v>
+      </c>
+      <c r="K6">
+        <v>0.15</v>
+      </c>
+      <c r="L6">
+        <v>-0.06</v>
+      </c>
+      <c r="M6">
+        <v>0.009802232000000001</v>
+      </c>
+      <c r="N6">
+        <v>-0.06980223199999999</v>
+      </c>
+      <c r="O6">
+        <v>-0.017450558</v>
+      </c>
+      <c r="P6">
+        <v>-0.05235167399999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.09764832600000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1206782914821452</v>
+      </c>
+      <c r="T6">
+        <v>1.108270428392721</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-1.530263719528368</v>
+      </c>
+      <c r="W6">
+        <v>0.4648094452773612</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-6.121054878113473</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1361875376339539</v>
+      </c>
+      <c r="C7">
+        <v>1.152915752890713</v>
+      </c>
+      <c r="D7">
+        <v>1.218615752890713</v>
+      </c>
+      <c r="E7">
+        <v>-0.7643</v>
+      </c>
+      <c r="F7">
+        <v>0.06670000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.001</v>
+      </c>
+      <c r="H7">
+        <v>0.503</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.09</v>
+      </c>
+      <c r="K7">
+        <v>0.15</v>
+      </c>
+      <c r="L7">
+        <v>-0.06</v>
+      </c>
+      <c r="M7">
+        <v>0.01225279</v>
+      </c>
+      <c r="N7">
+        <v>-0.07225279</v>
+      </c>
+      <c r="O7">
+        <v>-0.0180631975</v>
+      </c>
+      <c r="P7">
+        <v>-0.05418959249999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.0958104075</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1218506945503783</v>
+      </c>
+      <c r="T7">
+        <v>1.119936432902118</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-1.224210975622695</v>
+      </c>
+      <c r="W7">
+        <v>0.408587556221889</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-4.896843902490779</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1379315376339539</v>
+      </c>
+      <c r="C8">
+        <v>1.123053631549917</v>
+      </c>
+      <c r="D8">
+        <v>1.202093631549917</v>
+      </c>
+      <c r="E8">
+        <v>-0.75096</v>
+      </c>
+      <c r="F8">
+        <v>0.08004</v>
+      </c>
+      <c r="G8">
+        <v>0.001</v>
+      </c>
+      <c r="H8">
+        <v>0.503</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.09</v>
+      </c>
+      <c r="K8">
+        <v>0.15</v>
+      </c>
+      <c r="L8">
+        <v>-0.06</v>
+      </c>
+      <c r="M8">
+        <v>0.014703348</v>
+      </c>
+      <c r="N8">
+        <v>-0.074703348</v>
+      </c>
+      <c r="O8">
+        <v>-0.018675837</v>
+      </c>
+      <c r="P8">
+        <v>-0.056027511</v>
+      </c>
+      <c r="Q8">
+        <v>0.09397248899999999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1230480423647441</v>
+      </c>
+      <c r="T8">
+        <v>1.131850650273417</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-1.020175813018912</v>
+      </c>
+      <c r="W8">
+        <v>0.3711062968515743</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-4.08070325207565</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1396755376339539</v>
+      </c>
+      <c r="C9">
+        <v>1.093633534535789</v>
+      </c>
+      <c r="D9">
+        <v>1.186013534535789</v>
+      </c>
+      <c r="E9">
+        <v>-0.7376199999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.09338000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.001</v>
+      </c>
+      <c r="H9">
+        <v>0.503</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.09</v>
+      </c>
+      <c r="K9">
+        <v>0.15</v>
+      </c>
+      <c r="L9">
+        <v>-0.06</v>
+      </c>
+      <c r="M9">
+        <v>0.017153906</v>
+      </c>
+      <c r="N9">
+        <v>-0.07715390599999999</v>
+      </c>
+      <c r="O9">
+        <v>-0.0192884765</v>
+      </c>
+      <c r="P9">
+        <v>-0.0578654295</v>
+      </c>
+      <c r="Q9">
+        <v>0.0921345705</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1242711395944725</v>
+      </c>
+      <c r="T9">
+        <v>1.144021087373131</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-0.8744364111590676</v>
+      </c>
+      <c r="W9">
+        <v>0.3443339687299207</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-3.49774564463627</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1414195376339539</v>
+      </c>
+      <c r="C10">
+        <v>1.064637957463145</v>
+      </c>
+      <c r="D10">
+        <v>1.170357957463145</v>
+      </c>
+      <c r="E10">
+        <v>-0.7242799999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.10672</v>
+      </c>
+      <c r="G10">
+        <v>0.001</v>
+      </c>
+      <c r="H10">
+        <v>0.503</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.09</v>
+      </c>
+      <c r="K10">
+        <v>0.15</v>
+      </c>
+      <c r="L10">
+        <v>-0.06</v>
+      </c>
+      <c r="M10">
+        <v>0.019604464</v>
+      </c>
+      <c r="N10">
+        <v>-0.079604464</v>
+      </c>
+      <c r="O10">
+        <v>-0.019901116</v>
+      </c>
+      <c r="P10">
+        <v>-0.059703348</v>
+      </c>
+      <c r="Q10">
+        <v>0.09029665199999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1255208258944124</v>
+      </c>
+      <c r="T10">
+        <v>1.156456099192404</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.7651318597641842</v>
+      </c>
+      <c r="W10">
+        <v>0.3242547226386806</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-3.060527439056737</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1431635376339539</v>
+      </c>
+      <c r="C11">
+        <v>1.036050308148833</v>
+      </c>
+      <c r="D11">
+        <v>1.155110308148833</v>
+      </c>
+      <c r="E11">
+        <v>-0.7109399999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.12006</v>
+      </c>
+      <c r="G11">
+        <v>0.001</v>
+      </c>
+      <c r="H11">
+        <v>0.503</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.09</v>
+      </c>
+      <c r="K11">
+        <v>0.15</v>
+      </c>
+      <c r="L11">
+        <v>-0.06</v>
+      </c>
+      <c r="M11">
+        <v>0.022055022</v>
+      </c>
+      <c r="N11">
+        <v>-0.08205502200000001</v>
+      </c>
+      <c r="O11">
+        <v>-0.0205137555</v>
+      </c>
+      <c r="P11">
+        <v>-0.0615412665</v>
+      </c>
+      <c r="Q11">
+        <v>0.0884587335</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.126797977827318</v>
+      </c>
+      <c r="T11">
+        <v>1.169164407974738</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.6801172086792749</v>
+      </c>
+      <c r="W11">
+        <v>0.3086375312343828</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-2.7204688347171</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1449075376339539</v>
+      </c>
+      <c r="C12">
+        <v>1.007854847954214</v>
+      </c>
+      <c r="D12">
+        <v>1.140254847954214</v>
+      </c>
+      <c r="E12">
+        <v>-0.6976</v>
+      </c>
+      <c r="F12">
+        <v>0.1334</v>
+      </c>
+      <c r="G12">
+        <v>0.001</v>
+      </c>
+      <c r="H12">
+        <v>0.503</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.09</v>
+      </c>
+      <c r="K12">
+        <v>0.15</v>
+      </c>
+      <c r="L12">
+        <v>-0.06</v>
+      </c>
+      <c r="M12">
+        <v>0.02450558</v>
+      </c>
+      <c r="N12">
+        <v>-0.08450558</v>
+      </c>
+      <c r="O12">
+        <v>-0.021126395</v>
+      </c>
+      <c r="P12">
+        <v>-0.063379185</v>
+      </c>
+      <c r="Q12">
+        <v>0.08662081499999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1281035109142882</v>
+      </c>
+      <c r="T12">
+        <v>1.182155123618902</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.6121054878113473</v>
+      </c>
+      <c r="W12">
+        <v>0.2961437781109445</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-2.448421951245389</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1466515376339539</v>
+      </c>
+      <c r="C13">
+        <v>0.9800366375964104</v>
+      </c>
+      <c r="D13">
+        <v>1.12577663759641</v>
+      </c>
+      <c r="E13">
+        <v>-0.68426</v>
+      </c>
+      <c r="F13">
+        <v>0.14674</v>
+      </c>
+      <c r="G13">
+        <v>0.001</v>
+      </c>
+      <c r="H13">
+        <v>0.503</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.09</v>
+      </c>
+      <c r="K13">
+        <v>0.15</v>
+      </c>
+      <c r="L13">
+        <v>-0.06</v>
+      </c>
+      <c r="M13">
+        <v>0.026956138</v>
+      </c>
+      <c r="N13">
+        <v>-0.086956138</v>
+      </c>
+      <c r="O13">
+        <v>-0.0217390345</v>
+      </c>
+      <c r="P13">
+        <v>-0.0652171035</v>
+      </c>
+      <c r="Q13">
+        <v>0.0847828965</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1294383818234375</v>
+      </c>
+      <c r="T13">
+        <v>1.195437765457317</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.5564595343739522</v>
+      </c>
+      <c r="W13">
+        <v>0.285921616464495</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-2.225838137495809</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1483955376339539</v>
+      </c>
+      <c r="C14">
+        <v>0.9525814870361176</v>
+      </c>
+      <c r="D14">
+        <v>1.111661487036118</v>
+      </c>
+      <c r="E14">
+        <v>-0.67092</v>
+      </c>
+      <c r="F14">
+        <v>0.16008</v>
+      </c>
+      <c r="G14">
+        <v>0.001</v>
+      </c>
+      <c r="H14">
+        <v>0.503</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.09</v>
+      </c>
+      <c r="K14">
+        <v>0.15</v>
+      </c>
+      <c r="L14">
+        <v>-0.06</v>
+      </c>
+      <c r="M14">
+        <v>0.029406696</v>
+      </c>
+      <c r="N14">
+        <v>-0.08940669599999999</v>
+      </c>
+      <c r="O14">
+        <v>-0.022351674</v>
+      </c>
+      <c r="P14">
+        <v>-0.06705502199999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.082944978</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1308035907077948</v>
+      </c>
+      <c r="T14">
+        <v>1.209022285519332</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.5100879065094562</v>
+      </c>
+      <c r="W14">
+        <v>0.2774031484257871</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-2.040351626037824</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1501395376339539</v>
+      </c>
+      <c r="C15">
+        <v>0.9254759090886108</v>
+      </c>
+      <c r="D15">
+        <v>1.097895909088611</v>
+      </c>
+      <c r="E15">
+        <v>-0.6575799999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.17342</v>
+      </c>
+      <c r="G15">
+        <v>0.001</v>
+      </c>
+      <c r="H15">
+        <v>0.503</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.09</v>
+      </c>
+      <c r="K15">
+        <v>0.15</v>
+      </c>
+      <c r="L15">
+        <v>-0.06</v>
+      </c>
+      <c r="M15">
+        <v>0.031857254</v>
+      </c>
+      <c r="N15">
+        <v>-0.091857254</v>
+      </c>
+      <c r="O15">
+        <v>-0.0229643135</v>
+      </c>
+      <c r="P15">
+        <v>-0.0688929405</v>
+      </c>
+      <c r="Q15">
+        <v>0.08110705949999999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1322001837044361</v>
+      </c>
+      <c r="T15">
+        <v>1.222919093398864</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.470850375239498</v>
+      </c>
+      <c r="W15">
+        <v>0.2701952139314958</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-1.883401500957992</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1518835376339539</v>
+      </c>
+      <c r="C16">
+        <v>0.8987070764391771</v>
+      </c>
+      <c r="D16">
+        <v>1.084467076439177</v>
+      </c>
+      <c r="E16">
+        <v>-0.6442399999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.18676</v>
+      </c>
+      <c r="G16">
+        <v>0.001</v>
+      </c>
+      <c r="H16">
+        <v>0.503</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.09</v>
+      </c>
+      <c r="K16">
+        <v>0.15</v>
+      </c>
+      <c r="L16">
+        <v>-0.06</v>
+      </c>
+      <c r="M16">
+        <v>0.03430781200000001</v>
+      </c>
+      <c r="N16">
+        <v>-0.094307812</v>
+      </c>
+      <c r="O16">
+        <v>-0.023576953</v>
+      </c>
+      <c r="P16">
+        <v>-0.07073085900000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.07926914099999999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1336292556079761</v>
+      </c>
+      <c r="T16">
+        <v>1.23713908285699</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.4372182055795338</v>
+      </c>
+      <c r="W16">
+        <v>0.2640169843649603</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-1.748872822318135</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1536275376339539</v>
+      </c>
+      <c r="C17">
+        <v>0.8722627817750039</v>
+      </c>
+      <c r="D17">
+        <v>1.071362781775004</v>
+      </c>
+      <c r="E17">
+        <v>-0.6309</v>
+      </c>
+      <c r="F17">
+        <v>0.2001</v>
+      </c>
+      <c r="G17">
+        <v>0.001</v>
+      </c>
+      <c r="H17">
+        <v>0.503</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.09</v>
+      </c>
+      <c r="K17">
+        <v>0.15</v>
+      </c>
+      <c r="L17">
+        <v>-0.06</v>
+      </c>
+      <c r="M17">
+        <v>0.03675837</v>
+      </c>
+      <c r="N17">
+        <v>-0.09675837</v>
+      </c>
+      <c r="O17">
+        <v>-0.0241895925</v>
+      </c>
+      <c r="P17">
+        <v>-0.0725687775</v>
+      </c>
+      <c r="Q17">
+        <v>0.07743122249999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1350919527327758</v>
+      </c>
+      <c r="T17">
+        <v>1.251693660302367</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.408070325207565</v>
+      </c>
+      <c r="W17">
+        <v>0.2586625187406297</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-1.63228130083026</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1553715376339539</v>
+      </c>
+      <c r="C18">
+        <v>0.8461314007730605</v>
+      </c>
+      <c r="D18">
+        <v>1.058571400773061</v>
+      </c>
+      <c r="E18">
+        <v>-0.6175599999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.21344</v>
+      </c>
+      <c r="G18">
+        <v>0.001</v>
+      </c>
+      <c r="H18">
+        <v>0.503</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.09</v>
+      </c>
+      <c r="K18">
+        <v>0.15</v>
+      </c>
+      <c r="L18">
+        <v>-0.06</v>
+      </c>
+      <c r="M18">
+        <v>0.039208928</v>
+      </c>
+      <c r="N18">
+        <v>-0.099208928</v>
+      </c>
+      <c r="O18">
+        <v>-0.024802232</v>
+      </c>
+      <c r="P18">
+        <v>-0.07440669599999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.075593304</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1365894759795946</v>
+      </c>
+      <c r="T18">
+        <v>1.266594775305967</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.3825659298820921</v>
+      </c>
+      <c r="W18">
+        <v>0.2539773613193403</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-1.530263719528369</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1571155376339539</v>
+      </c>
+      <c r="C19">
+        <v>0.8203018577081092</v>
+      </c>
+      <c r="D19">
+        <v>1.046081857708109</v>
+      </c>
+      <c r="E19">
+        <v>-0.60422</v>
+      </c>
+      <c r="F19">
+        <v>0.22678</v>
+      </c>
+      <c r="G19">
+        <v>0.001</v>
+      </c>
+      <c r="H19">
+        <v>0.503</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.09</v>
+      </c>
+      <c r="K19">
+        <v>0.15</v>
+      </c>
+      <c r="L19">
+        <v>-0.06</v>
+      </c>
+      <c r="M19">
+        <v>0.04165948600000001</v>
+      </c>
+      <c r="N19">
+        <v>-0.101659486</v>
+      </c>
+      <c r="O19">
+        <v>-0.0254148715</v>
+      </c>
+      <c r="P19">
+        <v>-0.0762446145</v>
+      </c>
+      <c r="Q19">
+        <v>0.07375538549999999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.138123084123927</v>
+      </c>
+      <c r="T19">
+        <v>1.281854953321701</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.3600620516537337</v>
+      </c>
+      <c r="W19">
+        <v>0.2498433988887909</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-1.440248206614935</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1588595376339539</v>
+      </c>
+      <c r="C20">
+        <v>0.7947635934669607</v>
+      </c>
+      <c r="D20">
+        <v>1.033883593466961</v>
+      </c>
+      <c r="E20">
+        <v>-0.59088</v>
+      </c>
+      <c r="F20">
+        <v>0.24012</v>
+      </c>
+      <c r="G20">
+        <v>0.001</v>
+      </c>
+      <c r="H20">
+        <v>0.503</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.09</v>
+      </c>
+      <c r="K20">
+        <v>0.15</v>
+      </c>
+      <c r="L20">
+        <v>-0.06</v>
+      </c>
+      <c r="M20">
+        <v>0.044110044</v>
+      </c>
+      <c r="N20">
+        <v>-0.104110044</v>
+      </c>
+      <c r="O20">
+        <v>-0.026027511</v>
+      </c>
+      <c r="P20">
+        <v>-0.078082533</v>
+      </c>
+      <c r="Q20">
+        <v>0.071917467</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1396940973449505</v>
+      </c>
+      <c r="T20">
+        <v>1.297487330801234</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.3400586043396375</v>
+      </c>
+      <c r="W20">
+        <v>0.2461687656171914</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-1.36023441735855</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1606035376339539</v>
+      </c>
+      <c r="C21">
+        <v>0.7695065357748361</v>
+      </c>
+      <c r="D21">
+        <v>1.021966535774836</v>
+      </c>
+      <c r="E21">
+        <v>-0.5775399999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.25346</v>
+      </c>
+      <c r="G21">
+        <v>0.001</v>
+      </c>
+      <c r="H21">
+        <v>0.503</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.09</v>
+      </c>
+      <c r="K21">
+        <v>0.15</v>
+      </c>
+      <c r="L21">
+        <v>-0.06</v>
+      </c>
+      <c r="M21">
+        <v>0.04656060200000001</v>
+      </c>
+      <c r="N21">
+        <v>-0.106560602</v>
+      </c>
+      <c r="O21">
+        <v>-0.0266401505</v>
+      </c>
+      <c r="P21">
+        <v>-0.0799204515</v>
+      </c>
+      <c r="Q21">
+        <v>0.07007954849999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1413039010158758</v>
+      </c>
+      <c r="T21">
+        <v>1.313505692909891</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.3221607830586039</v>
+      </c>
+      <c r="W21">
+        <v>0.2428809358478655</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-1.288643132234415</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1623475376339539</v>
+      </c>
+      <c r="C22">
+        <v>0.7445210714573759</v>
+      </c>
+      <c r="D22">
+        <v>1.010321071457376</v>
+      </c>
+      <c r="E22">
+        <v>-0.5641999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.2668</v>
+      </c>
+      <c r="G22">
+        <v>0.001</v>
+      </c>
+      <c r="H22">
+        <v>0.503</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.09</v>
+      </c>
+      <c r="K22">
+        <v>0.15</v>
+      </c>
+      <c r="L22">
+        <v>-0.06</v>
+      </c>
+      <c r="M22">
+        <v>0.04901116</v>
+      </c>
+      <c r="N22">
+        <v>-0.10901116</v>
+      </c>
+      <c r="O22">
+        <v>-0.02725279</v>
+      </c>
+      <c r="P22">
+        <v>-0.08175837</v>
+      </c>
+      <c r="Q22">
+        <v>0.06824163</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1429539497785743</v>
+      </c>
+      <c r="T22">
+        <v>1.329924514071265</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.3060527439056737</v>
+      </c>
+      <c r="W22">
+        <v>0.2399218890554723</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-1.224210975622694</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1640915376339539</v>
+      </c>
+      <c r="C23">
+        <v>0.7197980205777579</v>
+      </c>
+      <c r="D23">
+        <v>0.9989380205777578</v>
+      </c>
+      <c r="E23">
+        <v>-0.5508599999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.28014</v>
+      </c>
+      <c r="G23">
+        <v>0.001</v>
+      </c>
+      <c r="H23">
+        <v>0.503</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.09</v>
+      </c>
+      <c r="K23">
+        <v>0.15</v>
+      </c>
+      <c r="L23">
+        <v>-0.06</v>
+      </c>
+      <c r="M23">
+        <v>0.051461718</v>
+      </c>
+      <c r="N23">
+        <v>-0.111461718</v>
+      </c>
+      <c r="O23">
+        <v>-0.0278654295</v>
+      </c>
+      <c r="P23">
+        <v>-0.0835962885</v>
+      </c>
+      <c r="Q23">
+        <v>0.06640371149999999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1446457719276701</v>
+      </c>
+      <c r="T23">
+        <v>1.346759001591154</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.2914788037196893</v>
+      </c>
+      <c r="W23">
+        <v>0.2372446562433069</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-1.165915214878757</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1658355376339539</v>
+      </c>
+      <c r="C24">
+        <v>0.6953286123026767</v>
+      </c>
+      <c r="D24">
+        <v>0.9878086123026767</v>
+      </c>
+      <c r="E24">
+        <v>-0.53752</v>
+      </c>
+      <c r="F24">
+        <v>0.29348</v>
+      </c>
+      <c r="G24">
+        <v>0.001</v>
+      </c>
+      <c r="H24">
+        <v>0.503</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.09</v>
+      </c>
+      <c r="K24">
+        <v>0.15</v>
+      </c>
+      <c r="L24">
+        <v>-0.06</v>
+      </c>
+      <c r="M24">
+        <v>0.053912276</v>
+      </c>
+      <c r="N24">
+        <v>-0.113912276</v>
+      </c>
+      <c r="O24">
+        <v>-0.028478069</v>
+      </c>
+      <c r="P24">
+        <v>-0.08543420700000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.06456579299999998</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.146380974131871</v>
+      </c>
+      <c r="T24">
+        <v>1.364025142637195</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.2782297671869761</v>
+      </c>
+      <c r="W24">
+        <v>0.2348108082322475</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-1.112919068747904</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1675795376339539</v>
+      </c>
+      <c r="C25">
+        <v>0.6711044623638516</v>
+      </c>
+      <c r="D25">
+        <v>0.9769244623638517</v>
+      </c>
+      <c r="E25">
+        <v>-0.5241799999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.30682</v>
+      </c>
+      <c r="G25">
+        <v>0.001</v>
+      </c>
+      <c r="H25">
+        <v>0.503</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.09</v>
+      </c>
+      <c r="K25">
+        <v>0.15</v>
+      </c>
+      <c r="L25">
+        <v>-0.06</v>
+      </c>
+      <c r="M25">
+        <v>0.05636283400000001</v>
+      </c>
+      <c r="N25">
+        <v>-0.116362834</v>
+      </c>
+      <c r="O25">
+        <v>-0.0290907085</v>
+      </c>
+      <c r="P25">
+        <v>-0.08727212549999999</v>
+      </c>
+      <c r="Q25">
+        <v>0.0627278745</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.148161246523194</v>
+      </c>
+      <c r="T25">
+        <v>1.381739754879236</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.2661328207875423</v>
+      </c>
+      <c r="W25">
+        <v>0.2325885991786715</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-1.064531283150169</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1693235376339539</v>
+      </c>
+      <c r="C26">
+        <v>0.6471175519933297</v>
+      </c>
+      <c r="D26">
+        <v>0.9662775519933297</v>
+      </c>
+      <c r="E26">
+        <v>-0.51084</v>
+      </c>
+      <c r="F26">
+        <v>0.32016</v>
+      </c>
+      <c r="G26">
+        <v>0.001</v>
+      </c>
+      <c r="H26">
+        <v>0.503</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.09</v>
+      </c>
+      <c r="K26">
+        <v>0.15</v>
+      </c>
+      <c r="L26">
+        <v>-0.06</v>
+      </c>
+      <c r="M26">
+        <v>0.058813392</v>
+      </c>
+      <c r="N26">
+        <v>-0.118813392</v>
+      </c>
+      <c r="O26">
+        <v>-0.029703348</v>
+      </c>
+      <c r="P26">
+        <v>-0.089110044</v>
+      </c>
+      <c r="Q26">
+        <v>0.060889956</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1499883681879729</v>
+      </c>
+      <c r="T26">
+        <v>1.399920541127647</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.2550439532547281</v>
+      </c>
+      <c r="W26">
+        <v>0.2305515742128936</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-1.020175813018912</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1710675376339539</v>
+      </c>
+      <c r="C27">
+        <v>0.6233602082213697</v>
+      </c>
+      <c r="D27">
+        <v>0.9558602082213697</v>
+      </c>
+      <c r="E27">
+        <v>-0.4974999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.3335</v>
+      </c>
+      <c r="G27">
+        <v>0.001</v>
+      </c>
+      <c r="H27">
+        <v>0.503</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.09</v>
+      </c>
+      <c r="K27">
+        <v>0.15</v>
+      </c>
+      <c r="L27">
+        <v>-0.06</v>
+      </c>
+      <c r="M27">
+        <v>0.06126395</v>
+      </c>
+      <c r="N27">
+        <v>-0.12126395</v>
+      </c>
+      <c r="O27">
+        <v>-0.0303159875</v>
+      </c>
+      <c r="P27">
+        <v>-0.09094796250000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.05905203749999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1518642130971459</v>
+      </c>
+      <c r="T27">
+        <v>1.418586148342682</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.2448421951245389</v>
+      </c>
+      <c r="W27">
+        <v>0.2286775112443778</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-0.9793687804981559</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1728115376339538</v>
+      </c>
+      <c r="C28">
+        <v>0.5998250854351724</v>
+      </c>
+      <c r="D28">
+        <v>0.9456650854351725</v>
+      </c>
+      <c r="E28">
+        <v>-0.4841599999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.34684</v>
+      </c>
+      <c r="G28">
+        <v>0.001</v>
+      </c>
+      <c r="H28">
+        <v>0.503</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.09</v>
+      </c>
+      <c r="K28">
+        <v>0.15</v>
+      </c>
+      <c r="L28">
+        <v>-0.06</v>
+      </c>
+      <c r="M28">
+        <v>0.063714508</v>
+      </c>
+      <c r="N28">
+        <v>-0.123714508</v>
+      </c>
+      <c r="O28">
+        <v>-0.030928627</v>
+      </c>
+      <c r="P28">
+        <v>-0.092785881</v>
+      </c>
+      <c r="Q28">
+        <v>0.05721411899999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1537907565173776</v>
+      </c>
+      <c r="T28">
+        <v>1.437756231428394</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.235425187619749</v>
+      </c>
+      <c r="W28">
+        <v>0.2269476069657479</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-0.941700750478996</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1745555376339539</v>
+      </c>
+      <c r="C29">
+        <v>0.5765051481053137</v>
+      </c>
+      <c r="D29">
+        <v>0.9356851481053138</v>
+      </c>
+      <c r="E29">
+        <v>-0.4708199999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.3601800000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.001</v>
+      </c>
+      <c r="H29">
+        <v>0.503</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.09</v>
+      </c>
+      <c r="K29">
+        <v>0.15</v>
+      </c>
+      <c r="L29">
+        <v>-0.06</v>
+      </c>
+      <c r="M29">
+        <v>0.06616506600000001</v>
+      </c>
+      <c r="N29">
+        <v>-0.126165066</v>
+      </c>
+      <c r="O29">
+        <v>-0.0315412665</v>
+      </c>
+      <c r="P29">
+        <v>-0.09462379949999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.0553762005</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1557700819491225</v>
+      </c>
+      <c r="T29">
+        <v>1.457451522269879</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.226705736226425</v>
+      </c>
+      <c r="W29">
+        <v>0.2253458437447942</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-0.9068229449056995</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1762995376339539</v>
+      </c>
+      <c r="C30">
+        <v>0.5533936545945204</v>
+      </c>
+      <c r="D30">
+        <v>0.9259136545945205</v>
+      </c>
+      <c r="E30">
+        <v>-0.4574799999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.3735200000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.001</v>
+      </c>
+      <c r="H30">
+        <v>0.503</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.09</v>
+      </c>
+      <c r="K30">
+        <v>0.15</v>
+      </c>
+      <c r="L30">
+        <v>-0.06</v>
+      </c>
+      <c r="M30">
+        <v>0.06861562400000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.128615624</v>
+      </c>
+      <c r="O30">
+        <v>-0.032153906</v>
+      </c>
+      <c r="P30">
+        <v>-0.096461718</v>
+      </c>
+      <c r="Q30">
+        <v>0.05353828199999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1578043886428603</v>
+      </c>
+      <c r="T30">
+        <v>1.477693904523627</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.2186091027897669</v>
+      </c>
+      <c r="W30">
+        <v>0.2238584921824802</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-0.8744364111590677</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1780435376339539</v>
+      </c>
+      <c r="C31">
+        <v>0.5304841419704832</v>
+      </c>
+      <c r="D31">
+        <v>0.9163441419704832</v>
+      </c>
+      <c r="E31">
+        <v>-0.44414</v>
+      </c>
+      <c r="F31">
+        <v>0.38686</v>
+      </c>
+      <c r="G31">
+        <v>0.001</v>
+      </c>
+      <c r="H31">
+        <v>0.503</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.09</v>
+      </c>
+      <c r="K31">
+        <v>0.15</v>
+      </c>
+      <c r="L31">
+        <v>-0.06</v>
+      </c>
+      <c r="M31">
+        <v>0.07106618199999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.131066182</v>
+      </c>
+      <c r="O31">
+        <v>-0.03276654549999999</v>
+      </c>
+      <c r="P31">
+        <v>-0.09829963649999998</v>
+      </c>
+      <c r="Q31">
+        <v>0.05170036350000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1598959997505062</v>
+      </c>
+      <c r="T31">
+        <v>1.498506494728186</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.2110708578659819</v>
+      </c>
+      <c r="W31">
+        <v>0.2224737165899809</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-0.8442834314639274</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1797875376339539</v>
+      </c>
+      <c r="C32">
+        <v>0.5077704117508132</v>
+      </c>
+      <c r="D32">
+        <v>0.9069704117508132</v>
+      </c>
+      <c r="E32">
+        <v>-0.4308</v>
+      </c>
+      <c r="F32">
+        <v>0.4002</v>
+      </c>
+      <c r="G32">
+        <v>0.001</v>
+      </c>
+      <c r="H32">
+        <v>0.503</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.09</v>
+      </c>
+      <c r="K32">
+        <v>0.15</v>
+      </c>
+      <c r="L32">
+        <v>-0.06</v>
+      </c>
+      <c r="M32">
+        <v>0.07351674</v>
+      </c>
+      <c r="N32">
+        <v>-0.13351674</v>
+      </c>
+      <c r="O32">
+        <v>-0.033379185</v>
+      </c>
+      <c r="P32">
+        <v>-0.100137555</v>
+      </c>
+      <c r="Q32">
+        <v>0.04986244500000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1620473711755135</v>
+      </c>
+      <c r="T32">
+        <v>1.51991373036716</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.2040351626037825</v>
+      </c>
+      <c r="W32">
+        <v>0.2211812593703148</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-0.8161406504151298</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1815315376339539</v>
+      </c>
+      <c r="C33">
+        <v>0.48524651651407</v>
+      </c>
+      <c r="D33">
+        <v>0.89778651651407</v>
+      </c>
+      <c r="E33">
+        <v>-0.4174599999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.41354</v>
+      </c>
+      <c r="G33">
+        <v>0.001</v>
+      </c>
+      <c r="H33">
+        <v>0.503</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.09</v>
+      </c>
+      <c r="K33">
+        <v>0.15</v>
+      </c>
+      <c r="L33">
+        <v>-0.06</v>
+      </c>
+      <c r="M33">
+        <v>0.075967298</v>
+      </c>
+      <c r="N33">
+        <v>-0.135967298</v>
+      </c>
+      <c r="O33">
+        <v>-0.0339918245</v>
+      </c>
+      <c r="P33">
+        <v>-0.1019754735</v>
+      </c>
+      <c r="Q33">
+        <v>0.04802452649999998</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1642611011925499</v>
+      </c>
+      <c r="T33">
+        <v>1.541941465589872</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.1974533831649508</v>
+      </c>
+      <c r="W33">
+        <v>0.2199721864874015</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.7898135326598033</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1832755376339539</v>
+      </c>
+      <c r="C34">
+        <v>0.4629067473160872</v>
+      </c>
+      <c r="D34">
+        <v>0.8887867473160872</v>
+      </c>
+      <c r="E34">
+        <v>-0.4041199999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.42688</v>
+      </c>
+      <c r="G34">
+        <v>0.001</v>
+      </c>
+      <c r="H34">
+        <v>0.503</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.09</v>
+      </c>
+      <c r="K34">
+        <v>0.15</v>
+      </c>
+      <c r="L34">
+        <v>-0.06</v>
+      </c>
+      <c r="M34">
+        <v>0.07841785600000001</v>
+      </c>
+      <c r="N34">
+        <v>-0.138417856</v>
+      </c>
+      <c r="O34">
+        <v>-0.034604464</v>
+      </c>
+      <c r="P34">
+        <v>-0.103813392</v>
+      </c>
+      <c r="Q34">
+        <v>0.04618660799999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1665399409159697</v>
+      </c>
+      <c r="T34">
+        <v>1.564617075377958</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.191282964941046</v>
+      </c>
+      <c r="W34">
+        <v>0.2188386806596702</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.7651318597641843</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1850195376339538</v>
+      </c>
+      <c r="C35">
+        <v>0.4407456218556494</v>
+      </c>
+      <c r="D35">
+        <v>0.8799656218556494</v>
+      </c>
+      <c r="E35">
+        <v>-0.3907799999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.4402200000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.001</v>
+      </c>
+      <c r="H35">
+        <v>0.503</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.09</v>
+      </c>
+      <c r="K35">
+        <v>0.15</v>
+      </c>
+      <c r="L35">
+        <v>-0.06</v>
+      </c>
+      <c r="M35">
+        <v>0.08086841400000001</v>
+      </c>
+      <c r="N35">
+        <v>-0.140868414</v>
+      </c>
+      <c r="O35">
+        <v>-0.0352171035</v>
+      </c>
+      <c r="P35">
+        <v>-0.1056513105</v>
+      </c>
+      <c r="Q35">
+        <v>0.0443486895</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1688868057057603</v>
+      </c>
+      <c r="T35">
+        <v>1.587969569040316</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.185486511457984</v>
+      </c>
+      <c r="W35">
+        <v>0.2177738721548317</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.741946045831936</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1867635376339539</v>
+      </c>
+      <c r="C36">
+        <v>0.4187578733379693</v>
+      </c>
+      <c r="D36">
+        <v>0.8713178733379694</v>
+      </c>
+      <c r="E36">
+        <v>-0.3774399999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.4535600000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.001</v>
+      </c>
+      <c r="H36">
+        <v>0.503</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.09</v>
+      </c>
+      <c r="K36">
+        <v>0.15</v>
+      </c>
+      <c r="L36">
+        <v>-0.06</v>
+      </c>
+      <c r="M36">
+        <v>0.08331897200000002</v>
+      </c>
+      <c r="N36">
+        <v>-0.143318972</v>
+      </c>
+      <c r="O36">
+        <v>-0.035829743</v>
+      </c>
+      <c r="P36">
+        <v>-0.107489229</v>
+      </c>
+      <c r="Q36">
+        <v>0.04251077099999997</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1713047876103931</v>
+      </c>
+      <c r="T36">
+        <v>1.612029714025776</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.1800310258268669</v>
+      </c>
+      <c r="W36">
+        <v>0.2167716994443954</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.7201241033074675</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1885075376339539</v>
+      </c>
+      <c r="C37">
+        <v>0.3969384399884343</v>
+      </c>
+      <c r="D37">
+        <v>0.8628384399884343</v>
+      </c>
+      <c r="E37">
+        <v>-0.3640999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.4669000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.001</v>
+      </c>
+      <c r="H37">
+        <v>0.503</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.09</v>
+      </c>
+      <c r="K37">
+        <v>0.15</v>
+      </c>
+      <c r="L37">
+        <v>-0.06</v>
+      </c>
+      <c r="M37">
+        <v>0.08576953000000002</v>
+      </c>
+      <c r="N37">
+        <v>-0.14576953</v>
+      </c>
+      <c r="O37">
+        <v>-0.03644238250000001</v>
+      </c>
+      <c r="P37">
+        <v>-0.1093271475</v>
+      </c>
+      <c r="Q37">
+        <v>0.04067285249999997</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1737971689582453</v>
+      </c>
+      <c r="T37">
+        <v>1.636830171164634</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.1748872822318135</v>
+      </c>
+      <c r="W37">
+        <v>0.2158267937459842</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.6995491289272542</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1902515376339539</v>
+      </c>
+      <c r="C38">
+        <v>0.3752824551727438</v>
+      </c>
+      <c r="D38">
+        <v>0.8545224551727438</v>
+      </c>
+      <c r="E38">
+        <v>-0.35076</v>
+      </c>
+      <c r="F38">
+        <v>0.48024</v>
+      </c>
+      <c r="G38">
+        <v>0.001</v>
+      </c>
+      <c r="H38">
+        <v>0.503</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.09</v>
+      </c>
+      <c r="K38">
+        <v>0.15</v>
+      </c>
+      <c r="L38">
+        <v>-0.06</v>
+      </c>
+      <c r="M38">
+        <v>0.088220088</v>
+      </c>
+      <c r="N38">
+        <v>-0.148220088</v>
+      </c>
+      <c r="O38">
+        <v>-0.037055022</v>
+      </c>
+      <c r="P38">
+        <v>-0.111165066</v>
+      </c>
+      <c r="Q38">
+        <v>0.03883493399999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1763674372232178</v>
+      </c>
+      <c r="T38">
+        <v>1.662405642589081</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.1700293021698187</v>
+      </c>
+      <c r="W38">
+        <v>0.2149343828085957</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.6801172086792748</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1919955376339539</v>
+      </c>
+      <c r="C39">
+        <v>0.3537852380829252</v>
+      </c>
+      <c r="D39">
+        <v>0.8463652380829252</v>
+      </c>
+      <c r="E39">
+        <v>-0.3374199999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.49358</v>
+      </c>
+      <c r="G39">
+        <v>0.001</v>
+      </c>
+      <c r="H39">
+        <v>0.503</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.09</v>
+      </c>
+      <c r="K39">
+        <v>0.15</v>
+      </c>
+      <c r="L39">
+        <v>-0.06</v>
+      </c>
+      <c r="M39">
+        <v>0.09067064600000001</v>
+      </c>
+      <c r="N39">
+        <v>-0.150670646</v>
+      </c>
+      <c r="O39">
+        <v>-0.0376676615</v>
+      </c>
+      <c r="P39">
+        <v>-0.1130029845</v>
+      </c>
+      <c r="Q39">
+        <v>0.03699701549999998</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1790193013061261</v>
+      </c>
+      <c r="T39">
+        <v>1.688793033741288</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.1654339156246885</v>
+      </c>
+      <c r="W39">
+        <v>0.2140902103002553</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.661735662498754</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1937395376339539</v>
+      </c>
+      <c r="C40">
+        <v>0.3324422849517691</v>
+      </c>
+      <c r="D40">
+        <v>0.8383622849517691</v>
+      </c>
+      <c r="E40">
+        <v>-0.3240799999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.50692</v>
+      </c>
+      <c r="G40">
+        <v>0.001</v>
+      </c>
+      <c r="H40">
+        <v>0.503</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.09</v>
+      </c>
+      <c r="K40">
+        <v>0.15</v>
+      </c>
+      <c r="L40">
+        <v>-0.06</v>
+      </c>
+      <c r="M40">
+        <v>0.09312120400000001</v>
+      </c>
+      <c r="N40">
+        <v>-0.153121204</v>
+      </c>
+      <c r="O40">
+        <v>-0.038280301</v>
+      </c>
+      <c r="P40">
+        <v>-0.114840903</v>
+      </c>
+      <c r="Q40">
+        <v>0.03515909699999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1817567093917087</v>
+      </c>
+      <c r="T40">
+        <v>1.716031631059696</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.1610803915293019</v>
+      </c>
+      <c r="W40">
+        <v>0.2132904679239328</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.6443215661172077</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1954835376339539</v>
+      </c>
+      <c r="C41">
+        <v>0.311249260761035</v>
+      </c>
+      <c r="D41">
+        <v>0.830509260761035</v>
+      </c>
+      <c r="E41">
+        <v>-0.3107399999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.5202600000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.001</v>
+      </c>
+      <c r="H41">
+        <v>0.503</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.09</v>
+      </c>
+      <c r="K41">
+        <v>0.15</v>
+      </c>
+      <c r="L41">
+        <v>-0.06</v>
+      </c>
+      <c r="M41">
+        <v>0.095571762</v>
+      </c>
+      <c r="N41">
+        <v>-0.155571762</v>
+      </c>
+      <c r="O41">
+        <v>-0.0388929405</v>
+      </c>
+      <c r="P41">
+        <v>-0.1166788215</v>
+      </c>
+      <c r="Q41">
+        <v>0.03332117849999999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1845838685620646</v>
+      </c>
+      <c r="T41">
+        <v>1.744163297142642</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.1569501250798327</v>
+      </c>
+      <c r="W41">
+        <v>0.2125317379771653</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.6278005003193308</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1972275376339539</v>
+      </c>
+      <c r="C42">
+        <v>0.2902019914113537</v>
+      </c>
+      <c r="D42">
+        <v>0.8228019914113538</v>
+      </c>
+      <c r="E42">
+        <v>-0.2973999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.5336000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.001</v>
+      </c>
+      <c r="H42">
+        <v>0.503</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.09</v>
+      </c>
+      <c r="K42">
+        <v>0.15</v>
+      </c>
+      <c r="L42">
+        <v>-0.06</v>
+      </c>
+      <c r="M42">
+        <v>0.09802232000000001</v>
+      </c>
+      <c r="N42">
+        <v>-0.15802232</v>
+      </c>
+      <c r="O42">
+        <v>-0.03950558</v>
+      </c>
+      <c r="P42">
+        <v>-0.11851674</v>
+      </c>
+      <c r="Q42">
+        <v>0.03148326</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1875052663714324</v>
+      </c>
+      <c r="T42">
+        <v>1.773232685428353</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.1530263719528368</v>
+      </c>
+      <c r="W42">
+        <v>0.2118109445277361</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.6121054878113472</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1989715376339539</v>
+      </c>
+      <c r="C43">
+        <v>0.2692964563241086</v>
+      </c>
+      <c r="D43">
+        <v>0.8152364563241087</v>
+      </c>
+      <c r="E43">
+        <v>-0.2840599999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.5469400000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.001</v>
+      </c>
+      <c r="H43">
+        <v>0.503</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.09</v>
+      </c>
+      <c r="K43">
+        <v>0.15</v>
+      </c>
+      <c r="L43">
+        <v>-0.06</v>
+      </c>
+      <c r="M43">
+        <v>0.100472878</v>
+      </c>
+      <c r="N43">
+        <v>-0.160472878</v>
+      </c>
+      <c r="O43">
+        <v>-0.0401182195</v>
+      </c>
+      <c r="P43">
+        <v>-0.1203546585</v>
+      </c>
+      <c r="Q43">
+        <v>0.02964534149999998</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.190525694615016</v>
+      </c>
+      <c r="T43">
+        <v>1.8032874767068</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.1492940214174018</v>
+      </c>
+      <c r="W43">
+        <v>0.2111253117343767</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.5971760856696071</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.2007155376339539</v>
+      </c>
+      <c r="C44">
+        <v>0.2485287814477458</v>
+      </c>
+      <c r="D44">
+        <v>0.8078087814477458</v>
+      </c>
+      <c r="E44">
+        <v>-0.27072</v>
+      </c>
+      <c r="F44">
+        <v>0.56028</v>
+      </c>
+      <c r="G44">
+        <v>0.001</v>
+      </c>
+      <c r="H44">
+        <v>0.503</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.09</v>
+      </c>
+      <c r="K44">
+        <v>0.15</v>
+      </c>
+      <c r="L44">
+        <v>-0.06</v>
+      </c>
+      <c r="M44">
+        <v>0.102923436</v>
+      </c>
+      <c r="N44">
+        <v>-0.162923436</v>
+      </c>
+      <c r="O44">
+        <v>-0.040730859</v>
+      </c>
+      <c r="P44">
+        <v>-0.122192577</v>
+      </c>
+      <c r="Q44">
+        <v>0.027807423</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1936502755566542</v>
+      </c>
+      <c r="T44">
+        <v>1.834378640098296</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.1457394018598446</v>
+      </c>
+      <c r="W44">
+        <v>0.2104723281216535</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.5829576074393785</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.2024595376339539</v>
+      </c>
+      <c r="C45">
+        <v>0.2278952326429508</v>
+      </c>
+      <c r="D45">
+        <v>0.8005152326429508</v>
+      </c>
+      <c r="E45">
+        <v>-0.2573799999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.57362</v>
+      </c>
+      <c r="G45">
+        <v>0.001</v>
+      </c>
+      <c r="H45">
+        <v>0.503</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.09</v>
+      </c>
+      <c r="K45">
+        <v>0.15</v>
+      </c>
+      <c r="L45">
+        <v>-0.06</v>
+      </c>
+      <c r="M45">
+        <v>0.105373994</v>
+      </c>
+      <c r="N45">
+        <v>-0.165373994</v>
+      </c>
+      <c r="O45">
+        <v>-0.0413434985</v>
+      </c>
+      <c r="P45">
+        <v>-0.1240304955</v>
+      </c>
+      <c r="Q45">
+        <v>0.02596950449999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1968844909172972</v>
+      </c>
+      <c r="T45">
+        <v>1.866560721503529</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.1423501134444994</v>
+      </c>
+      <c r="W45">
+        <v>0.2098497158397545</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.5694004537779975</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.2042035376339539</v>
+      </c>
+      <c r="C46">
+        <v>0.2073922094229653</v>
+      </c>
+      <c r="D46">
+        <v>0.7933522094229654</v>
+      </c>
+      <c r="E46">
+        <v>-0.2440399999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.58696</v>
+      </c>
+      <c r="G46">
+        <v>0.001</v>
+      </c>
+      <c r="H46">
+        <v>0.503</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.09</v>
+      </c>
+      <c r="K46">
+        <v>0.15</v>
+      </c>
+      <c r="L46">
+        <v>-0.06</v>
+      </c>
+      <c r="M46">
+        <v>0.107824552</v>
+      </c>
+      <c r="N46">
+        <v>-0.167824552</v>
+      </c>
+      <c r="O46">
+        <v>-0.041956138</v>
+      </c>
+      <c r="P46">
+        <v>-0.125868414</v>
+      </c>
+      <c r="Q46">
+        <v>0.02413158599999998</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.2002342139693918</v>
+      </c>
+      <c r="T46">
+        <v>1.89989216295895</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.1391148835934881</v>
+      </c>
+      <c r="W46">
+        <v>0.2092554041161238</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.5564595343739522</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.2059475376339539</v>
+      </c>
+      <c r="C47">
+        <v>0.1870162390269913</v>
+      </c>
+      <c r="D47">
+        <v>0.7863162390269913</v>
+      </c>
+      <c r="E47">
+        <v>-0.2306999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.6003000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.001</v>
+      </c>
+      <c r="H47">
+        <v>0.503</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.09</v>
+      </c>
+      <c r="K47">
+        <v>0.15</v>
+      </c>
+      <c r="L47">
+        <v>-0.06</v>
+      </c>
+      <c r="M47">
+        <v>0.11027511</v>
+      </c>
+      <c r="N47">
+        <v>-0.17027511</v>
+      </c>
+      <c r="O47">
+        <v>-0.0425687775</v>
+      </c>
+      <c r="P47">
+        <v>-0.1277063325</v>
+      </c>
+      <c r="Q47">
+        <v>0.02229366749999998</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.2037057451324717</v>
+      </c>
+      <c r="T47">
+        <v>1.93443565683093</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.136023441735855</v>
+      </c>
+      <c r="W47">
+        <v>0.2086875062468766</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.5440937669434198</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.2076915376339539</v>
+      </c>
+      <c r="C48">
+        <v>0.1667639708061901</v>
+      </c>
+      <c r="D48">
+        <v>0.7794039708061902</v>
+      </c>
+      <c r="E48">
+        <v>-0.2173599999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.6136400000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.001</v>
+      </c>
+      <c r="H48">
+        <v>0.503</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.09</v>
+      </c>
+      <c r="K48">
+        <v>0.15</v>
+      </c>
+      <c r="L48">
+        <v>-0.06</v>
+      </c>
+      <c r="M48">
+        <v>0.112725668</v>
+      </c>
+      <c r="N48">
+        <v>-0.172725668</v>
+      </c>
+      <c r="O48">
+        <v>-0.043181417</v>
+      </c>
+      <c r="P48">
+        <v>-0.129544251</v>
+      </c>
+      <c r="Q48">
+        <v>0.020455749</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.2073058515238137</v>
+      </c>
+      <c r="T48">
+        <v>1.970258539364837</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.1330664103937712</v>
+      </c>
+      <c r="W48">
+        <v>0.2081442995893358</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.5322656415750846</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.2094355376339539</v>
+      </c>
+      <c r="C49">
+        <v>0.1466321709032059</v>
+      </c>
+      <c r="D49">
+        <v>0.772612170903206</v>
+      </c>
+      <c r="E49">
+        <v>-0.2040199999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.6269800000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.001</v>
+      </c>
+      <c r="H49">
+        <v>0.503</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.09</v>
+      </c>
+      <c r="K49">
+        <v>0.15</v>
+      </c>
+      <c r="L49">
+        <v>-0.06</v>
+      </c>
+      <c r="M49">
+        <v>0.115176226</v>
+      </c>
+      <c r="N49">
+        <v>-0.175176226</v>
+      </c>
+      <c r="O49">
+        <v>-0.0437940565</v>
+      </c>
+      <c r="P49">
+        <v>-0.1313821695</v>
+      </c>
+      <c r="Q49">
+        <v>0.01861783049999999</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.2110418109865272</v>
+      </c>
+      <c r="T49">
+        <v>2.007433228786815</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.1302352101726271</v>
+      </c>
+      <c r="W49">
+        <v>0.2076242081087116</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.5209408406905083</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.2111795376339539</v>
+      </c>
+      <c r="C50">
+        <v>0.1266177172074663</v>
+      </c>
+      <c r="D50">
+        <v>0.7659377172074663</v>
+      </c>
+      <c r="E50">
+        <v>-0.19068</v>
+      </c>
+      <c r="F50">
+        <v>0.64032</v>
+      </c>
+      <c r="G50">
+        <v>0.001</v>
+      </c>
+      <c r="H50">
+        <v>0.503</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.09</v>
+      </c>
+      <c r="K50">
+        <v>0.15</v>
+      </c>
+      <c r="L50">
+        <v>-0.06</v>
+      </c>
+      <c r="M50">
+        <v>0.117626784</v>
+      </c>
+      <c r="N50">
+        <v>-0.177626784</v>
+      </c>
+      <c r="O50">
+        <v>-0.044406696</v>
+      </c>
+      <c r="P50">
+        <v>-0.133220088</v>
+      </c>
+      <c r="Q50">
+        <v>0.01677991200000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.2149214611978066</v>
+      </c>
+      <c r="T50">
+        <v>2.046037713955792</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.1275219766273641</v>
+      </c>
+      <c r="W50">
+        <v>0.2071257871064468</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.5100879065094561</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.2129235376339539</v>
+      </c>
+      <c r="C51">
+        <v>0.1067175945697232</v>
+      </c>
+      <c r="D51">
+        <v>0.7593775945697232</v>
+      </c>
+      <c r="E51">
+        <v>-0.1773399999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.65366</v>
+      </c>
+      <c r="G51">
+        <v>0.001</v>
+      </c>
+      <c r="H51">
+        <v>0.503</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.09</v>
+      </c>
+      <c r="K51">
+        <v>0.15</v>
+      </c>
+      <c r="L51">
+        <v>-0.06</v>
+      </c>
+      <c r="M51">
+        <v>0.120077342</v>
+      </c>
+      <c r="N51">
+        <v>-0.180077342</v>
+      </c>
+      <c r="O51">
+        <v>-0.0450193355</v>
+      </c>
+      <c r="P51">
+        <v>-0.1350580065</v>
+      </c>
+      <c r="Q51">
+        <v>0.0149419935</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.2189532545546263</v>
+      </c>
+      <c r="T51">
+        <v>2.086156100503945</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.1249194873084382</v>
+      </c>
+      <c r="W51">
+        <v>0.2066477098185601</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.4996779492337531</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.2146675376339539</v>
+      </c>
+      <c r="C52">
+        <v>0.08692889026042705</v>
+      </c>
+      <c r="D52">
+        <v>0.7529288902604271</v>
+      </c>
+      <c r="E52">
+        <v>-0.1639999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.667</v>
+      </c>
+      <c r="G52">
+        <v>0.001</v>
+      </c>
+      <c r="H52">
+        <v>0.503</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.09</v>
+      </c>
+      <c r="K52">
+        <v>0.15</v>
+      </c>
+      <c r="L52">
+        <v>-0.06</v>
+      </c>
+      <c r="M52">
+        <v>0.1225279</v>
+      </c>
+      <c r="N52">
+        <v>-0.1825279</v>
+      </c>
+      <c r="O52">
+        <v>-0.04563197500000001</v>
+      </c>
+      <c r="P52">
+        <v>-0.136895925</v>
+      </c>
+      <c r="Q52">
+        <v>0.01310407499999997</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2231463196457188</v>
+      </c>
+      <c r="T52">
+        <v>2.127879222514023</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.1224210975622695</v>
+      </c>
+      <c r="W52">
+        <v>0.2061887556221889</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.4896843902490779</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.2164115376339539</v>
+      </c>
+      <c r="C53">
+        <v>0.06724878965755787</v>
+      </c>
+      <c r="D53">
+        <v>0.7465887896575579</v>
+      </c>
+      <c r="E53">
+        <v>-0.1506599999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.6803400000000001</v>
+      </c>
+      <c r="G53">
+        <v>0.001</v>
+      </c>
+      <c r="H53">
+        <v>0.503</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.09</v>
+      </c>
+      <c r="K53">
+        <v>0.15</v>
+      </c>
+      <c r="L53">
+        <v>-0.06</v>
+      </c>
+      <c r="M53">
+        <v>0.124978458</v>
+      </c>
+      <c r="N53">
+        <v>-0.184978458</v>
+      </c>
+      <c r="O53">
+        <v>-0.0462446145</v>
+      </c>
+      <c r="P53">
+        <v>-0.1387338435</v>
+      </c>
+      <c r="Q53">
+        <v>0.01126615649999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2275105302507335</v>
+      </c>
+      <c r="T53">
+        <v>2.171305329095942</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.1200206838845779</v>
+      </c>
+      <c r="W53">
+        <v>0.205747799629597</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.4800827355383117</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.2181555376339539</v>
+      </c>
+      <c r="C54">
+        <v>0.04767457215050397</v>
+      </c>
+      <c r="D54">
+        <v>0.740354572150504</v>
+      </c>
+      <c r="E54">
+        <v>-0.1373199999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.6936800000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.001</v>
+      </c>
+      <c r="H54">
+        <v>0.503</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.09</v>
+      </c>
+      <c r="K54">
+        <v>0.15</v>
+      </c>
+      <c r="L54">
+        <v>-0.06</v>
+      </c>
+      <c r="M54">
+        <v>0.127429016</v>
+      </c>
+      <c r="N54">
+        <v>-0.187429016</v>
+      </c>
+      <c r="O54">
+        <v>-0.046857254</v>
+      </c>
+      <c r="P54">
+        <v>-0.140571762</v>
+      </c>
+      <c r="Q54">
+        <v>0.009428238000000005</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2320565829642905</v>
+      </c>
+      <c r="T54">
+        <v>2.216540856785441</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.1177125938098745</v>
+      </c>
+      <c r="W54">
+        <v>0.2053238034828739</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.4708503752394979</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.2198995376339539</v>
+      </c>
+      <c r="C55">
+        <v>0.02820360724746274</v>
+      </c>
+      <c r="D55">
+        <v>0.7342236072474628</v>
+      </c>
+      <c r="E55">
+        <v>-0.1239799999999999</v>
+      </c>
+      <c r="F55">
+        <v>0.7070200000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.001</v>
+      </c>
+      <c r="H55">
+        <v>0.503</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.09</v>
+      </c>
+      <c r="K55">
+        <v>0.15</v>
+      </c>
+      <c r="L55">
+        <v>-0.06</v>
+      </c>
+      <c r="M55">
+        <v>0.129879574</v>
+      </c>
+      <c r="N55">
+        <v>-0.189879574</v>
+      </c>
+      <c r="O55">
+        <v>-0.04746989350000001</v>
+      </c>
+      <c r="P55">
+        <v>-0.1424096805</v>
+      </c>
+      <c r="Q55">
+        <v>0.00759031949999997</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.2367960847294882</v>
+      </c>
+      <c r="T55">
+        <v>2.263701300546834</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.1154916014738391</v>
+      </c>
+      <c r="W55">
+        <v>0.2049158071907443</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.4619664058953565</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.2216435376339539</v>
+      </c>
+      <c r="C56">
+        <v>0.008833350874664858</v>
+      </c>
+      <c r="D56">
+        <v>0.728193350874665</v>
+      </c>
+      <c r="E56">
+        <v>-0.1106399999999998</v>
+      </c>
+      <c r="F56">
+        <v>0.7203600000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.001</v>
+      </c>
+      <c r="H56">
+        <v>0.503</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.09</v>
+      </c>
+      <c r="K56">
+        <v>0.15</v>
+      </c>
+      <c r="L56">
+        <v>-0.06</v>
+      </c>
+      <c r="M56">
+        <v>0.132330132</v>
+      </c>
+      <c r="N56">
+        <v>-0.192330132</v>
+      </c>
+      <c r="O56">
+        <v>-0.048082533</v>
+      </c>
+      <c r="P56">
+        <v>-0.144247599</v>
+      </c>
+      <c r="Q56">
+        <v>0.00575240099999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2417416517888248</v>
+      </c>
+      <c r="T56">
+        <v>2.312912198384808</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.1133528681132125</v>
+      </c>
+      <c r="W56">
+        <v>0.2045229218723972</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.45341147245285</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.2233875376339539</v>
+      </c>
+      <c r="C57">
+        <v>-0.01043865814351919</v>
+      </c>
+      <c r="D57">
+        <v>0.7222613418564809</v>
+      </c>
+      <c r="E57">
+        <v>-0.09729999999999983</v>
+      </c>
+      <c r="F57">
+        <v>0.7337000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.001</v>
+      </c>
+      <c r="H57">
+        <v>0.503</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.09</v>
+      </c>
+      <c r="K57">
+        <v>0.15</v>
+      </c>
+      <c r="L57">
+        <v>-0.06</v>
+      </c>
+      <c r="M57">
+        <v>0.13478069</v>
+      </c>
+      <c r="N57">
+        <v>-0.19478069</v>
+      </c>
+      <c r="O57">
+        <v>-0.04869517250000001</v>
+      </c>
+      <c r="P57">
+        <v>-0.1460855175</v>
+      </c>
+      <c r="Q57">
+        <v>0.003914482499999955</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2469070218285765</v>
+      </c>
+      <c r="T57">
+        <v>2.364310247237804</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.1112919068747904</v>
+      </c>
+      <c r="W57">
+        <v>0.204144323292899</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.4451676274991616</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.2251315376339538</v>
+      </c>
+      <c r="C58">
+        <v>-0.02961480143381989</v>
+      </c>
+      <c r="D58">
+        <v>0.7164251985661803</v>
+      </c>
+      <c r="E58">
+        <v>-0.08395999999999981</v>
+      </c>
+      <c r="F58">
+        <v>0.7470400000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.001</v>
+      </c>
+      <c r="H58">
+        <v>0.503</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.09</v>
+      </c>
+      <c r="K58">
+        <v>0.15</v>
+      </c>
+      <c r="L58">
+        <v>-0.06</v>
+      </c>
+      <c r="M58">
+        <v>0.137231248</v>
+      </c>
+      <c r="N58">
+        <v>-0.197231248</v>
+      </c>
+      <c r="O58">
+        <v>-0.04930781200000001</v>
+      </c>
+      <c r="P58">
+        <v>-0.147923436</v>
+      </c>
+      <c r="Q58">
+        <v>0.002076563999999975</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2523071814155896</v>
+      </c>
+      <c r="T58">
+        <v>2.418044571038663</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.1093045513948834</v>
+      </c>
+      <c r="W58">
+        <v>0.2037792460912401</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.4372182055795337</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2268755376339538</v>
+      </c>
+      <c r="C59">
+        <v>-0.04869738426223269</v>
+      </c>
+      <c r="D59">
+        <v>0.7106826157377675</v>
+      </c>
+      <c r="E59">
+        <v>-0.07061999999999979</v>
+      </c>
+      <c r="F59">
+        <v>0.7603800000000002</v>
+      </c>
+      <c r="G59">
+        <v>0.001</v>
+      </c>
+      <c r="H59">
+        <v>0.503</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.09</v>
+      </c>
+      <c r="K59">
+        <v>0.15</v>
+      </c>
+      <c r="L59">
+        <v>-0.06</v>
+      </c>
+      <c r="M59">
+        <v>0.139681806</v>
+      </c>
+      <c r="N59">
+        <v>-0.199681806</v>
+      </c>
+      <c r="O59">
+        <v>-0.0499204515</v>
+      </c>
+      <c r="P59">
+        <v>-0.1497613545</v>
+      </c>
+      <c r="Q59">
+        <v>0.0002386454999999954</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2579585112159521</v>
+      </c>
+      <c r="T59">
+        <v>2.474278165713981</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.1073869276862013</v>
+      </c>
+      <c r="W59">
+        <v>0.2034269786159552</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.4295477107448051</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2286195376339539</v>
+      </c>
+      <c r="C60">
+        <v>-0.06768863857006946</v>
+      </c>
+      <c r="D60">
+        <v>0.7050313614299305</v>
+      </c>
+      <c r="E60">
+        <v>-0.05728</v>
+      </c>
+      <c r="F60">
+        <v>0.77372</v>
+      </c>
+      <c r="G60">
+        <v>0.001</v>
+      </c>
+      <c r="H60">
+        <v>0.503</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.09</v>
+      </c>
+      <c r="K60">
+        <v>0.15</v>
+      </c>
+      <c r="L60">
+        <v>-0.06</v>
+      </c>
+      <c r="M60">
+        <v>0.142132364</v>
+      </c>
+      <c r="N60">
+        <v>-0.202132364</v>
+      </c>
+      <c r="O60">
+        <v>-0.050533091</v>
+      </c>
+      <c r="P60">
+        <v>-0.151599273</v>
+      </c>
+      <c r="Q60">
+        <v>-0.001599272999999984</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.263878951959189</v>
+      </c>
+      <c r="T60">
+        <v>2.533189550611933</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.1055354289329909</v>
+      </c>
+      <c r="W60">
+        <v>0.2030868582949905</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.4221417157319638</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2303635376339538</v>
+      </c>
+      <c r="C61">
+        <v>-0.08659072586630068</v>
+      </c>
+      <c r="D61">
+        <v>0.6994692741336993</v>
+      </c>
+      <c r="E61">
+        <v>-0.04393999999999998</v>
+      </c>
+      <c r="F61">
+        <v>0.78706</v>
+      </c>
+      <c r="G61">
+        <v>0.001</v>
+      </c>
+      <c r="H61">
+        <v>0.503</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.09</v>
+      </c>
+      <c r="K61">
+        <v>0.15</v>
+      </c>
+      <c r="L61">
+        <v>-0.06</v>
+      </c>
+      <c r="M61">
+        <v>0.144582922</v>
+      </c>
+      <c r="N61">
+        <v>-0.204582922</v>
+      </c>
+      <c r="O61">
+        <v>-0.0511457305</v>
+      </c>
+      <c r="P61">
+        <v>-0.1534371915</v>
+      </c>
+      <c r="Q61">
+        <v>-0.00343719150000002</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2700881946899009</v>
+      </c>
+      <c r="T61">
+        <v>2.594974661602467</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.1037466928493809</v>
+      </c>
+      <c r="W61">
+        <v>0.2027582674764313</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.4149867713975237</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2321075376339539</v>
+      </c>
+      <c r="C62">
+        <v>-0.1054057399840606</v>
+      </c>
+      <c r="D62">
+        <v>0.6939942600159394</v>
+      </c>
+      <c r="E62">
+        <v>-0.03059999999999996</v>
+      </c>
+      <c r="F62">
+        <v>0.8004</v>
+      </c>
+      <c r="G62">
+        <v>0.001</v>
+      </c>
+      <c r="H62">
+        <v>0.503</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.09</v>
+      </c>
+      <c r="K62">
+        <v>0.15</v>
+      </c>
+      <c r="L62">
+        <v>-0.06</v>
+      </c>
+      <c r="M62">
+        <v>0.14703348</v>
+      </c>
+      <c r="N62">
+        <v>-0.20703348</v>
+      </c>
+      <c r="O62">
+        <v>-0.05175837</v>
+      </c>
+      <c r="P62">
+        <v>-0.15527511</v>
+      </c>
+      <c r="Q62">
+        <v>-0.00527511</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2766078995571485</v>
+      </c>
+      <c r="T62">
+        <v>2.659849028142529</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.1020175813018912</v>
+      </c>
+      <c r="W62">
+        <v>0.2024406296851574</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.408070325207565</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2338515376339538</v>
+      </c>
+      <c r="C63">
+        <v>-0.1241357097086979</v>
+      </c>
+      <c r="D63">
+        <v>0.6886042902913021</v>
+      </c>
+      <c r="E63">
+        <v>-0.01725999999999994</v>
+      </c>
+      <c r="F63">
+        <v>0.81374</v>
+      </c>
+      <c r="G63">
+        <v>0.001</v>
+      </c>
+      <c r="H63">
+        <v>0.503</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.09</v>
+      </c>
+      <c r="K63">
+        <v>0.15</v>
+      </c>
+      <c r="L63">
+        <v>-0.06</v>
+      </c>
+      <c r="M63">
+        <v>0.149484038</v>
+      </c>
+      <c r="N63">
+        <v>-0.209484038</v>
+      </c>
+      <c r="O63">
+        <v>-0.0523710095</v>
+      </c>
+      <c r="P63">
+        <v>-0.1571130285</v>
+      </c>
+      <c r="Q63">
+        <v>-0.007113028500000007</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.283461948263742</v>
+      </c>
+      <c r="T63">
+        <v>2.728050285274389</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.1003451619362865</v>
+      </c>
+      <c r="W63">
+        <v>0.2021334062476958</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.4013806477451458</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2355955376339538</v>
+      </c>
+      <c r="C64">
+        <v>-0.1427826012843092</v>
+      </c>
+      <c r="D64">
+        <v>0.6832973987156908</v>
+      </c>
+      <c r="E64">
+        <v>-0.003919999999999924</v>
+      </c>
+      <c r="F64">
+        <v>0.82708</v>
+      </c>
+      <c r="G64">
+        <v>0.001</v>
+      </c>
+      <c r="H64">
+        <v>0.503</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.09</v>
+      </c>
+      <c r="K64">
+        <v>0.15</v>
+      </c>
+      <c r="L64">
+        <v>-0.06</v>
+      </c>
+      <c r="M64">
+        <v>0.151934596</v>
+      </c>
+      <c r="N64">
+        <v>-0.211934596</v>
+      </c>
+      <c r="O64">
+        <v>-0.052983649</v>
+      </c>
+      <c r="P64">
+        <v>-0.158950947</v>
+      </c>
+      <c r="Q64">
+        <v>-0.008950947000000015</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2906767363759458</v>
+      </c>
+      <c r="T64">
+        <v>2.799841082255294</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.09872669158247539</v>
+      </c>
+      <c r="W64">
+        <v>0.2018360932437007</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.3949067663299015</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2373395376339538</v>
+      </c>
+      <c r="C65">
+        <v>-0.1613483208052503</v>
+      </c>
+      <c r="D65">
+        <v>0.6780716791947498</v>
+      </c>
+      <c r="E65">
+        <v>0.009420000000000095</v>
+      </c>
+      <c r="F65">
+        <v>0.8404200000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.001</v>
+      </c>
+      <c r="H65">
+        <v>0.503</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.09</v>
+      </c>
+      <c r="K65">
+        <v>0.15</v>
+      </c>
+      <c r="L65">
+        <v>-0.06</v>
+      </c>
+      <c r="M65">
+        <v>0.154385154</v>
+      </c>
+      <c r="N65">
+        <v>-0.214385154</v>
+      </c>
+      <c r="O65">
+        <v>-0.05359628850000001</v>
+      </c>
+      <c r="P65">
+        <v>-0.1607888655</v>
+      </c>
+      <c r="Q65">
+        <v>-0.01078886550000002</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2982815130347551</v>
+      </c>
+      <c r="T65">
+        <v>2.875512462856788</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.09715960123989641</v>
+      </c>
+      <c r="W65">
+        <v>0.201548218747769</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.3886384049595857</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2390835376339538</v>
+      </c>
+      <c r="C66">
+        <v>-0.1798347164987464</v>
+      </c>
+      <c r="D66">
+        <v>0.6729252835012537</v>
+      </c>
+      <c r="E66">
+        <v>0.02276000000000011</v>
+      </c>
+      <c r="F66">
+        <v>0.8537600000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.001</v>
+      </c>
+      <c r="H66">
+        <v>0.503</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.09</v>
+      </c>
+      <c r="K66">
+        <v>0.15</v>
+      </c>
+      <c r="L66">
+        <v>-0.06</v>
+      </c>
+      <c r="M66">
+        <v>0.156835712</v>
+      </c>
+      <c r="N66">
+        <v>-0.216835712</v>
+      </c>
+      <c r="O66">
+        <v>-0.054208928</v>
+      </c>
+      <c r="P66">
+        <v>-0.162626784</v>
+      </c>
+      <c r="Q66">
+        <v>-0.01262678400000003</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.3063087772857205</v>
+      </c>
+      <c r="T66">
+        <v>2.955387809047255</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.09564148247052302</v>
+      </c>
+      <c r="W66">
+        <v>0.2012693403298351</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.382565929882092</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2408275376339539</v>
+      </c>
+      <c r="C67">
+        <v>-0.1982435809043346</v>
+      </c>
+      <c r="D67">
+        <v>0.6678564190956655</v>
+      </c>
+      <c r="E67">
+        <v>0.03610000000000013</v>
+      </c>
+      <c r="F67">
+        <v>0.8671000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.001</v>
+      </c>
+      <c r="H67">
+        <v>0.503</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.09</v>
+      </c>
+      <c r="K67">
+        <v>0.15</v>
+      </c>
+      <c r="L67">
+        <v>-0.06</v>
+      </c>
+      <c r="M67">
+        <v>0.15928627</v>
+      </c>
+      <c r="N67">
+        <v>-0.21928627</v>
+      </c>
+      <c r="O67">
+        <v>-0.0548215675</v>
+      </c>
+      <c r="P67">
+        <v>-0.1644647025</v>
+      </c>
+      <c r="Q67">
+        <v>-0.01446470250000001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.3147947423510269</v>
+      </c>
+      <c r="T67">
+        <v>3.039827460734319</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.09417007504789961</v>
+      </c>
+      <c r="W67">
+        <v>0.2009990427862992</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.3766803001915984</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2425715376339539</v>
+      </c>
+      <c r="C68">
+        <v>-0.2165766529555444</v>
+      </c>
+      <c r="D68">
+        <v>0.6628633470444557</v>
+      </c>
+      <c r="E68">
+        <v>0.04944000000000015</v>
+      </c>
+      <c r="F68">
+        <v>0.8804400000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.001</v>
+      </c>
+      <c r="H68">
+        <v>0.503</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.09</v>
+      </c>
+      <c r="K68">
+        <v>0.15</v>
+      </c>
+      <c r="L68">
+        <v>-0.06</v>
+      </c>
+      <c r="M68">
+        <v>0.161736828</v>
+      </c>
+      <c r="N68">
+        <v>-0.221736828</v>
+      </c>
+      <c r="O68">
+        <v>-0.05543420700000001</v>
+      </c>
+      <c r="P68">
+        <v>-0.166302621</v>
+      </c>
+      <c r="Q68">
+        <v>-0.01630262100000002</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.3237798818319395</v>
+      </c>
+      <c r="T68">
+        <v>3.129234150755917</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.09274325572899202</v>
+      </c>
+      <c r="W68">
+        <v>0.2007369360774158</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.370973022915968</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2443155376339539</v>
+      </c>
+      <c r="C69">
+        <v>-0.2348356199688918</v>
+      </c>
+      <c r="D69">
+        <v>0.6579443800311083</v>
+      </c>
+      <c r="E69">
+        <v>0.06278000000000017</v>
+      </c>
+      <c r="F69">
+        <v>0.8937800000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.001</v>
+      </c>
+      <c r="H69">
+        <v>0.503</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.09</v>
+      </c>
+      <c r="K69">
+        <v>0.15</v>
+      </c>
+      <c r="L69">
+        <v>-0.06</v>
+      </c>
+      <c r="M69">
+        <v>0.164187386</v>
+      </c>
+      <c r="N69">
+        <v>-0.224187386</v>
+      </c>
+      <c r="O69">
+        <v>-0.0560468465</v>
+      </c>
+      <c r="P69">
+        <v>-0.1681405395</v>
+      </c>
+      <c r="Q69">
+        <v>-0.01814053950000002</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.3333095752207861</v>
+      </c>
+      <c r="T69">
+        <v>3.224059428051551</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.09135902803154439</v>
+      </c>
+      <c r="W69">
+        <v>0.2004826534493947</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.3654361121261775</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2460595376339539</v>
+      </c>
+      <c r="C70">
+        <v>-0.2530221195449651</v>
+      </c>
+      <c r="D70">
+        <v>0.653097880455035</v>
+      </c>
+      <c r="E70">
+        <v>0.07612000000000019</v>
+      </c>
+      <c r="F70">
+        <v>0.9071200000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.001</v>
+      </c>
+      <c r="H70">
+        <v>0.503</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.09</v>
+      </c>
+      <c r="K70">
+        <v>0.15</v>
+      </c>
+      <c r="L70">
+        <v>-0.06</v>
+      </c>
+      <c r="M70">
+        <v>0.166637944</v>
+      </c>
+      <c r="N70">
+        <v>-0.226637944</v>
+      </c>
+      <c r="O70">
+        <v>-0.05665948600000001</v>
+      </c>
+      <c r="P70">
+        <v>-0.169978458</v>
+      </c>
+      <c r="Q70">
+        <v>-0.01997845800000003</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3434348744464357</v>
+      </c>
+      <c r="T70">
+        <v>3.324811285178162</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.09001551291343343</v>
+      </c>
+      <c r="W70">
+        <v>0.2002358497221977</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.3600620516537336</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2478035376339539</v>
+      </c>
+      <c r="C71">
+        <v>-0.2711377413861039</v>
+      </c>
+      <c r="D71">
+        <v>0.6483222586138963</v>
+      </c>
+      <c r="E71">
+        <v>0.08946000000000021</v>
+      </c>
+      <c r="F71">
+        <v>0.9204600000000002</v>
+      </c>
+      <c r="G71">
+        <v>0.001</v>
+      </c>
+      <c r="H71">
+        <v>0.503</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.09</v>
+      </c>
+      <c r="K71">
+        <v>0.15</v>
+      </c>
+      <c r="L71">
+        <v>-0.06</v>
+      </c>
+      <c r="M71">
+        <v>0.169088502</v>
+      </c>
+      <c r="N71">
+        <v>-0.229088502</v>
+      </c>
+      <c r="O71">
+        <v>-0.05727212550000001</v>
+      </c>
+      <c r="P71">
+        <v>-0.1718163765</v>
+      </c>
+      <c r="Q71">
+        <v>-0.02181637650000004</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3542134187834175</v>
+      </c>
+      <c r="T71">
+        <v>3.432063262119394</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.08871094026251411</v>
+      </c>
+      <c r="W71">
+        <v>0.1999961997262238</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.3548437610500563</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2495475376339539</v>
+      </c>
+      <c r="C72">
+        <v>-0.2891840290349096</v>
+      </c>
+      <c r="D72">
+        <v>0.6436159709650906</v>
+      </c>
+      <c r="E72">
+        <v>0.1028000000000002</v>
+      </c>
+      <c r="F72">
+        <v>0.9338000000000002</v>
+      </c>
+      <c r="G72">
+        <v>0.001</v>
+      </c>
+      <c r="H72">
+        <v>0.503</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.09</v>
+      </c>
+      <c r="K72">
+        <v>0.15</v>
+      </c>
+      <c r="L72">
+        <v>-0.06</v>
+      </c>
+      <c r="M72">
+        <v>0.17153906</v>
+      </c>
+      <c r="N72">
+        <v>-0.23153906</v>
+      </c>
+      <c r="O72">
+        <v>-0.05788476500000001</v>
+      </c>
+      <c r="P72">
+        <v>-0.173654295</v>
+      </c>
+      <c r="Q72">
+        <v>-0.02365429500000005</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3657105327428647</v>
+      </c>
+      <c r="T72">
+        <v>3.546465370856707</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.08744364111590675</v>
+      </c>
+      <c r="W72">
+        <v>0.1997633968729921</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.349774564463627</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2512915376339538</v>
+      </c>
+      <c r="C73">
+        <v>-0.307162481537579</v>
+      </c>
+      <c r="D73">
+        <v>0.638977518462421</v>
+      </c>
+      <c r="E73">
+        <v>0.11614</v>
+      </c>
+      <c r="F73">
+        <v>0.94714</v>
+      </c>
+      <c r="G73">
+        <v>0.001</v>
+      </c>
+      <c r="H73">
+        <v>0.503</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.09</v>
+      </c>
+      <c r="K73">
+        <v>0.15</v>
+      </c>
+      <c r="L73">
+        <v>-0.06</v>
+      </c>
+      <c r="M73">
+        <v>0.173989618</v>
+      </c>
+      <c r="N73">
+        <v>-0.233989618</v>
+      </c>
+      <c r="O73">
+        <v>-0.0584974045</v>
+      </c>
+      <c r="P73">
+        <v>-0.1754922135</v>
+      </c>
+      <c r="Q73">
+        <v>-0.0254922135</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3780005511133083</v>
+      </c>
+      <c r="T73">
+        <v>3.668757280196592</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.08621204053680949</v>
+      </c>
+      <c r="W73">
+        <v>0.1995371518466119</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.3448481621472379</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2530355376339539</v>
+      </c>
+      <c r="C74">
+        <v>-0.3250745550358313</v>
+      </c>
+      <c r="D74">
+        <v>0.6344054449641687</v>
+      </c>
+      <c r="E74">
+        <v>0.12948</v>
+      </c>
+      <c r="F74">
+        <v>0.96048</v>
+      </c>
+      <c r="G74">
+        <v>0.001</v>
+      </c>
+      <c r="H74">
+        <v>0.503</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.09</v>
+      </c>
+      <c r="K74">
+        <v>0.15</v>
+      </c>
+      <c r="L74">
+        <v>-0.06</v>
+      </c>
+      <c r="M74">
+        <v>0.176440176</v>
+      </c>
+      <c r="N74">
+        <v>-0.236440176</v>
+      </c>
+      <c r="O74">
+        <v>-0.059110044</v>
+      </c>
+      <c r="P74">
+        <v>-0.177330132</v>
+      </c>
+      <c r="Q74">
+        <v>-0.02733013200000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3911684279387836</v>
+      </c>
+      <c r="T74">
+        <v>3.799784325917899</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.08501465108490937</v>
+      </c>
+      <c r="W74">
+        <v>0.1993171914042979</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.3400586043396374</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2547795376339539</v>
+      </c>
+      <c r="C75">
+        <v>-0.3429216642909715</v>
+      </c>
+      <c r="D75">
+        <v>0.6298983357090285</v>
+      </c>
+      <c r="E75">
+        <v>0.1428200000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.97382</v>
+      </c>
+      <c r="G75">
+        <v>0.001</v>
+      </c>
+      <c r="H75">
+        <v>0.503</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.09</v>
+      </c>
+      <c r="K75">
+        <v>0.15</v>
+      </c>
+      <c r="L75">
+        <v>-0.06</v>
+      </c>
+      <c r="M75">
+        <v>0.178890734</v>
+      </c>
+      <c r="N75">
+        <v>-0.238890734</v>
+      </c>
+      <c r="O75">
+        <v>-0.0597226835</v>
+      </c>
+      <c r="P75">
+        <v>-0.1791680505</v>
+      </c>
+      <c r="Q75">
+        <v>-0.02916805050000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.4053117030476274</v>
+      </c>
+      <c r="T75">
+        <v>3.940517078729673</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.08385006682347225</v>
+      </c>
+      <c r="W75">
+        <v>0.1991032572754719</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.3354002672938889</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2565235376339539</v>
+      </c>
+      <c r="C76">
+        <v>-0.3607051841434503</v>
+      </c>
+      <c r="D76">
+        <v>0.6254548158565497</v>
+      </c>
+      <c r="E76">
+        <v>0.1561600000000001</v>
+      </c>
+      <c r="F76">
+        <v>0.98716</v>
+      </c>
+      <c r="G76">
+        <v>0.001</v>
+      </c>
+      <c r="H76">
+        <v>0.503</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.09</v>
+      </c>
+      <c r="K76">
+        <v>0.15</v>
+      </c>
+      <c r="L76">
+        <v>-0.06</v>
+      </c>
+      <c r="M76">
+        <v>0.181341292</v>
+      </c>
+      <c r="N76">
+        <v>-0.241341292</v>
+      </c>
+      <c r="O76">
+        <v>-0.060335323</v>
+      </c>
+      <c r="P76">
+        <v>-0.181005969</v>
+      </c>
+      <c r="Q76">
+        <v>-0.03100596900000002</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.4205429223956131</v>
+      </c>
+      <c r="T76">
+        <v>4.092075427911584</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.08271695781234424</v>
+      </c>
+      <c r="W76">
+        <v>0.1988951051501276</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.3308678312493769</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2582675376339538</v>
+      </c>
+      <c r="C77">
+        <v>-0.3784264509110784</v>
+      </c>
+      <c r="D77">
+        <v>0.6210735490889218</v>
+      </c>
+      <c r="E77">
+        <v>0.1695000000000002</v>
+      </c>
+      <c r="F77">
+        <v>1.0005</v>
+      </c>
+      <c r="G77">
+        <v>0.001</v>
+      </c>
+      <c r="H77">
+        <v>0.503</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.09</v>
+      </c>
+      <c r="K77">
+        <v>0.15</v>
+      </c>
+      <c r="L77">
+        <v>-0.06</v>
+      </c>
+      <c r="M77">
+        <v>0.18379185</v>
+      </c>
+      <c r="N77">
+        <v>-0.24379185</v>
+      </c>
+      <c r="O77">
+        <v>-0.06094796250000001</v>
+      </c>
+      <c r="P77">
+        <v>-0.1828438875</v>
+      </c>
+      <c r="Q77">
+        <v>-0.03284388750000003</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.4369926392914376</v>
+      </c>
+      <c r="T77">
+        <v>4.255758445028047</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.08161406504151297</v>
+      </c>
+      <c r="W77">
+        <v>0.1986925037481259</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.3264562601660519</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2600115376339538</v>
+      </c>
+      <c r="C78">
+        <v>-0.3960867637288814</v>
+      </c>
+      <c r="D78">
+        <v>0.6167532362711187</v>
+      </c>
+      <c r="E78">
+        <v>0.1828400000000001</v>
+      </c>
+      <c r="F78">
+        <v>1.01384</v>
+      </c>
+      <c r="G78">
+        <v>0.001</v>
+      </c>
+      <c r="H78">
+        <v>0.503</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.09</v>
+      </c>
+      <c r="K78">
+        <v>0.15</v>
+      </c>
+      <c r="L78">
+        <v>-0.06</v>
+      </c>
+      <c r="M78">
+        <v>0.186242408</v>
+      </c>
+      <c r="N78">
+        <v>-0.246242408</v>
+      </c>
+      <c r="O78">
+        <v>-0.06156060200000001</v>
+      </c>
+      <c r="P78">
+        <v>-0.184681806</v>
+      </c>
+      <c r="Q78">
+        <v>-0.03468180600000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.4548131659285809</v>
+      </c>
+      <c r="T78">
+        <v>4.433081713570883</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.08054019576465096</v>
+      </c>
+      <c r="W78">
+        <v>0.1984952339619664</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.322160783058604</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2617555376339539</v>
+      </c>
+      <c r="C79">
+        <v>-0.4136873858334217</v>
+      </c>
+      <c r="D79">
+        <v>0.6124926141665783</v>
+      </c>
+      <c r="E79">
+        <v>0.19618</v>
+      </c>
+      <c r="F79">
+        <v>1.02718</v>
+      </c>
+      <c r="G79">
+        <v>0.001</v>
+      </c>
+      <c r="H79">
+        <v>0.503</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.09</v>
+      </c>
+      <c r="K79">
+        <v>0.15</v>
+      </c>
+      <c r="L79">
+        <v>-0.06</v>
+      </c>
+      <c r="M79">
+        <v>0.188692966</v>
+      </c>
+      <c r="N79">
+        <v>-0.248692966</v>
+      </c>
+      <c r="O79">
+        <v>-0.0621732415</v>
+      </c>
+      <c r="P79">
+        <v>-0.1865197245</v>
+      </c>
+      <c r="Q79">
+        <v>-0.03651972449999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4741833035776496</v>
+      </c>
+      <c r="T79">
+        <v>4.625824396769616</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.07949421919627889</v>
+      </c>
+      <c r="W79">
+        <v>0.1983030880663564</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.3179768767851157</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2634995376339539</v>
+      </c>
+      <c r="C80">
+        <v>-0.4312295457942502</v>
+      </c>
+      <c r="D80">
+        <v>0.6082904542057499</v>
+      </c>
+      <c r="E80">
+        <v>0.2095200000000002</v>
+      </c>
+      <c r="F80">
+        <v>1.04052</v>
+      </c>
+      <c r="G80">
+        <v>0.001</v>
+      </c>
+      <c r="H80">
+        <v>0.503</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.09</v>
+      </c>
+      <c r="K80">
+        <v>0.15</v>
+      </c>
+      <c r="L80">
+        <v>-0.06</v>
+      </c>
+      <c r="M80">
+        <v>0.191143524</v>
+      </c>
+      <c r="N80">
+        <v>-0.251143524</v>
+      </c>
+      <c r="O80">
+        <v>-0.062785881</v>
+      </c>
+      <c r="P80">
+        <v>-0.188357643</v>
+      </c>
+      <c r="Q80">
+        <v>-0.03835764300000002</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4953143628311792</v>
+      </c>
+      <c r="T80">
+        <v>4.836089142077327</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.07847506253991633</v>
+      </c>
+      <c r="W80">
+        <v>0.1981158689885827</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.3139002501596653</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2652435376339539</v>
+      </c>
+      <c r="C81">
+        <v>-0.448714438695012</v>
+      </c>
+      <c r="D81">
+        <v>0.604145561304988</v>
+      </c>
+      <c r="E81">
+        <v>0.2228600000000001</v>
+      </c>
+      <c r="F81">
+        <v>1.05386</v>
+      </c>
+      <c r="G81">
+        <v>0.001</v>
+      </c>
+      <c r="H81">
+        <v>0.503</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.09</v>
+      </c>
+      <c r="K81">
+        <v>0.15</v>
+      </c>
+      <c r="L81">
+        <v>-0.06</v>
+      </c>
+      <c r="M81">
+        <v>0.193594082</v>
+      </c>
+      <c r="N81">
+        <v>-0.253594082</v>
+      </c>
+      <c r="O81">
+        <v>-0.0633985205</v>
+      </c>
+      <c r="P81">
+        <v>-0.1901955615</v>
+      </c>
+      <c r="Q81">
+        <v>-0.0401955615</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.5184579039183783</v>
+      </c>
+      <c r="T81">
+        <v>5.066379101223867</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.07748170731789208</v>
+      </c>
+      <c r="W81">
+        <v>0.1979333896342968</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.3099268292715682</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2669875376339538</v>
+      </c>
+      <c r="C82">
+        <v>-0.4661432272665904</v>
+      </c>
+      <c r="D82">
+        <v>0.6000567727334097</v>
+      </c>
+      <c r="E82">
+        <v>0.2362000000000002</v>
+      </c>
+      <c r="F82">
+        <v>1.0672</v>
+      </c>
+      <c r="G82">
+        <v>0.001</v>
+      </c>
+      <c r="H82">
+        <v>0.503</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.09</v>
+      </c>
+      <c r="K82">
+        <v>0.15</v>
+      </c>
+      <c r="L82">
+        <v>-0.06</v>
+      </c>
+      <c r="M82">
+        <v>0.19604464</v>
+      </c>
+      <c r="N82">
+        <v>-0.25604464</v>
+      </c>
+      <c r="O82">
+        <v>-0.06401116000000001</v>
+      </c>
+      <c r="P82">
+        <v>-0.19203348</v>
+      </c>
+      <c r="Q82">
+        <v>-0.04203348000000004</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.5439157991142971</v>
+      </c>
+      <c r="T82">
+        <v>5.319698056285059</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.07651318597641842</v>
+      </c>
+      <c r="W82">
+        <v>0.1977554722638681</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.3060527439056737</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2687315376339539</v>
+      </c>
+      <c r="C83">
+        <v>-0.4835170429745466</v>
+      </c>
+      <c r="D83">
+        <v>0.5960229570254535</v>
+      </c>
+      <c r="E83">
+        <v>0.2495400000000001</v>
+      </c>
+      <c r="F83">
+        <v>1.08054</v>
+      </c>
+      <c r="G83">
+        <v>0.001</v>
+      </c>
+      <c r="H83">
+        <v>0.503</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.09</v>
+      </c>
+      <c r="K83">
+        <v>0.15</v>
+      </c>
+      <c r="L83">
+        <v>-0.06</v>
+      </c>
+      <c r="M83">
+        <v>0.198495198</v>
+      </c>
+      <c r="N83">
+        <v>-0.258495198</v>
+      </c>
+      <c r="O83">
+        <v>-0.0646237995</v>
+      </c>
+      <c r="P83">
+        <v>-0.1938713985</v>
+      </c>
+      <c r="Q83">
+        <v>-0.04387139849999999</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5720534727518918</v>
+      </c>
+      <c r="T83">
+        <v>5.59968216451059</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.07556857874214165</v>
+      </c>
+      <c r="W83">
+        <v>0.1975819479149314</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.3022743149685665</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2704755376339539</v>
+      </c>
+      <c r="C84">
+        <v>-0.5008369870629905</v>
+      </c>
+      <c r="D84">
+        <v>0.5920430129370097</v>
+      </c>
+      <c r="E84">
+        <v>0.2628800000000002</v>
+      </c>
+      <c r="F84">
+        <v>1.09388</v>
+      </c>
+      <c r="G84">
+        <v>0.001</v>
+      </c>
+      <c r="H84">
+        <v>0.503</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.09</v>
+      </c>
+      <c r="K84">
+        <v>0.15</v>
+      </c>
+      <c r="L84">
+        <v>-0.06</v>
+      </c>
+      <c r="M84">
+        <v>0.200945756</v>
+      </c>
+      <c r="N84">
+        <v>-0.260945756</v>
+      </c>
+      <c r="O84">
+        <v>-0.06523643900000001</v>
+      </c>
+      <c r="P84">
+        <v>-0.195709317</v>
+      </c>
+      <c r="Q84">
+        <v>-0.04570931700000003</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.6033175545714413</v>
+      </c>
+      <c r="T84">
+        <v>5.910775618094512</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.07464701070870089</v>
+      </c>
+      <c r="W84">
+        <v>0.1974126558671884</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.2985880428348036</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2722195376339538</v>
+      </c>
+      <c r="C85">
+        <v>-0.5181041315569065</v>
+      </c>
+      <c r="D85">
+        <v>0.5881158684430936</v>
+      </c>
+      <c r="E85">
+        <v>0.2762200000000001</v>
+      </c>
+      <c r="F85">
+        <v>1.10722</v>
+      </c>
+      <c r="G85">
+        <v>0.001</v>
+      </c>
+      <c r="H85">
+        <v>0.503</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.09</v>
+      </c>
+      <c r="K85">
+        <v>0.15</v>
+      </c>
+      <c r="L85">
+        <v>-0.06</v>
+      </c>
+      <c r="M85">
+        <v>0.203396314</v>
+      </c>
+      <c r="N85">
+        <v>-0.263396314</v>
+      </c>
+      <c r="O85">
+        <v>-0.06584907850000001</v>
+      </c>
+      <c r="P85">
+        <v>-0.1975472355</v>
+      </c>
+      <c r="Q85">
+        <v>-0.04754723550000003</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.638259763663879</v>
+      </c>
+      <c r="T85">
+        <v>6.258468301511836</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.07374764913389727</v>
+      </c>
+      <c r="W85">
+        <v>0.1972474431458969</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.294990596535589</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2739635376339539</v>
+      </c>
+      <c r="C86">
+        <v>-0.5353195202248511</v>
+      </c>
+      <c r="D86">
+        <v>0.5842404797751489</v>
+      </c>
+      <c r="E86">
+        <v>0.28956</v>
+      </c>
+      <c r="F86">
+        <v>1.12056</v>
+      </c>
+      <c r="G86">
+        <v>0.001</v>
+      </c>
+      <c r="H86">
+        <v>0.503</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.09</v>
+      </c>
+      <c r="K86">
+        <v>0.15</v>
+      </c>
+      <c r="L86">
+        <v>-0.06</v>
+      </c>
+      <c r="M86">
+        <v>0.205846872</v>
+      </c>
+      <c r="N86">
+        <v>-0.265846872</v>
+      </c>
+      <c r="O86">
+        <v>-0.066461718</v>
+      </c>
+      <c r="P86">
+        <v>-0.199385154</v>
+      </c>
+      <c r="Q86">
+        <v>-0.04938515400000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6775697488928712</v>
+      </c>
+      <c r="T86">
+        <v>6.649622570356323</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.07286970092992232</v>
+      </c>
+      <c r="W86">
+        <v>0.1970861640608267</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.2914788037196892</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2757075376339538</v>
+      </c>
+      <c r="C87">
+        <v>-0.5524841695038361</v>
+      </c>
+      <c r="D87">
+        <v>0.5804158304961641</v>
+      </c>
+      <c r="E87">
+        <v>0.3029000000000002</v>
+      </c>
+      <c r="F87">
+        <v>1.1339</v>
+      </c>
+      <c r="G87">
+        <v>0.001</v>
+      </c>
+      <c r="H87">
+        <v>0.503</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.09</v>
+      </c>
+      <c r="K87">
+        <v>0.15</v>
+      </c>
+      <c r="L87">
+        <v>-0.06</v>
+      </c>
+      <c r="M87">
+        <v>0.20829743</v>
+      </c>
+      <c r="N87">
+        <v>-0.2682974300000001</v>
+      </c>
+      <c r="O87">
+        <v>-0.06707435750000001</v>
+      </c>
+      <c r="P87">
+        <v>-0.2012230725</v>
+      </c>
+      <c r="Q87">
+        <v>-0.05122307250000005</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.7221210654857293</v>
+      </c>
+      <c r="T87">
+        <v>7.092930741713411</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.07201241033074675</v>
+      </c>
+      <c r="W87">
+        <v>0.1969286797777582</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.2880496413229872</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2774515376339539</v>
+      </c>
+      <c r="C88">
+        <v>-0.5695990693881212</v>
+      </c>
+      <c r="D88">
+        <v>0.5766409306118788</v>
+      </c>
+      <c r="E88">
+        <v>0.3162400000000001</v>
+      </c>
+      <c r="F88">
+        <v>1.14724</v>
+      </c>
+      <c r="G88">
+        <v>0.001</v>
+      </c>
+      <c r="H88">
+        <v>0.503</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.09</v>
+      </c>
+      <c r="K88">
+        <v>0.15</v>
+      </c>
+      <c r="L88">
+        <v>-0.06</v>
+      </c>
+      <c r="M88">
+        <v>0.210747988</v>
+      </c>
+      <c r="N88">
+        <v>-0.270747988</v>
+      </c>
+      <c r="O88">
+        <v>-0.067686997</v>
+      </c>
+      <c r="P88">
+        <v>-0.203060991</v>
+      </c>
+      <c r="Q88">
+        <v>-0.053060991</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.7730368558775672</v>
+      </c>
+      <c r="T88">
+        <v>7.599568651835798</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.0711750567222497</v>
+      </c>
+      <c r="W88">
+        <v>0.1967748579198773</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.2847002268889989</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2791955376339539</v>
+      </c>
+      <c r="C89">
+        <v>-0.5866651842835482</v>
+      </c>
+      <c r="D89">
+        <v>0.572914815716452</v>
+      </c>
+      <c r="E89">
+        <v>0.3295800000000002</v>
+      </c>
+      <c r="F89">
+        <v>1.16058</v>
+      </c>
+      <c r="G89">
+        <v>0.001</v>
+      </c>
+      <c r="H89">
+        <v>0.503</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.09</v>
+      </c>
+      <c r="K89">
+        <v>0.15</v>
+      </c>
+      <c r="L89">
+        <v>-0.06</v>
+      </c>
+      <c r="M89">
+        <v>0.213198546</v>
+      </c>
+      <c r="N89">
+        <v>-0.273198546</v>
+      </c>
+      <c r="O89">
+        <v>-0.06829963650000001</v>
+      </c>
+      <c r="P89">
+        <v>-0.2048989095</v>
+      </c>
+      <c r="Q89">
+        <v>-0.05489890950000004</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.8317858447912263</v>
+      </c>
+      <c r="T89">
+        <v>8.184150855823168</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.07035695262199394</v>
+      </c>
+      <c r="W89">
+        <v>0.1966245721966603</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.2814278104879757</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2809395376339539</v>
+      </c>
+      <c r="C90">
+        <v>-0.6036834538289627</v>
+      </c>
+      <c r="D90">
+        <v>0.5692365461710374</v>
+      </c>
+      <c r="E90">
+        <v>0.3429200000000001</v>
+      </c>
+      <c r="F90">
+        <v>1.17392</v>
+      </c>
+      <c r="G90">
+        <v>0.001</v>
+      </c>
+      <c r="H90">
+        <v>0.503</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.09</v>
+      </c>
+      <c r="K90">
+        <v>0.15</v>
+      </c>
+      <c r="L90">
+        <v>-0.06</v>
+      </c>
+      <c r="M90">
+        <v>0.215649104</v>
+      </c>
+      <c r="N90">
+        <v>-0.275649104</v>
+      </c>
+      <c r="O90">
+        <v>-0.06891227599999999</v>
+      </c>
+      <c r="P90">
+        <v>-0.206736828</v>
+      </c>
+      <c r="Q90">
+        <v>-0.05673682799999999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.9003263318571618</v>
+      </c>
+      <c r="T90">
+        <v>8.866163427141766</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.06955744179674403</v>
+      </c>
+      <c r="W90">
+        <v>0.1964777020580619</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.278229767186976</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2826835376339539</v>
+      </c>
+      <c r="C91">
+        <v>-0.6206547936861984</v>
+      </c>
+      <c r="D91">
+        <v>0.5656052063138016</v>
+      </c>
+      <c r="E91">
+        <v>0.35626</v>
+      </c>
+      <c r="F91">
+        <v>1.18726</v>
+      </c>
+      <c r="G91">
+        <v>0.001</v>
+      </c>
+      <c r="H91">
+        <v>0.503</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.09</v>
+      </c>
+      <c r="K91">
+        <v>0.15</v>
+      </c>
+      <c r="L91">
+        <v>-0.06</v>
+      </c>
+      <c r="M91">
+        <v>0.218099662</v>
+      </c>
+      <c r="N91">
+        <v>-0.278099662</v>
+      </c>
+      <c r="O91">
+        <v>-0.06952491550000001</v>
+      </c>
+      <c r="P91">
+        <v>-0.2085747465</v>
+      </c>
+      <c r="Q91">
+        <v>-0.05857474650000002</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.9813287256623585</v>
+      </c>
+      <c r="T91">
+        <v>9.672178284154654</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.06877589750689297</v>
+      </c>
+      <c r="W91">
+        <v>0.1963341323720162</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.275103590027572</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2844275376339538</v>
+      </c>
+      <c r="C92">
+        <v>-0.6375800963000127</v>
+      </c>
+      <c r="D92">
+        <v>0.5620199036999874</v>
+      </c>
+      <c r="E92">
+        <v>0.3696000000000002</v>
+      </c>
+      <c r="F92">
+        <v>1.2006</v>
+      </c>
+      <c r="G92">
+        <v>0.001</v>
+      </c>
+      <c r="H92">
+        <v>0.503</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.09</v>
+      </c>
+      <c r="K92">
+        <v>0.15</v>
+      </c>
+      <c r="L92">
+        <v>-0.06</v>
+      </c>
+      <c r="M92">
+        <v>0.22055022</v>
+      </c>
+      <c r="N92">
+        <v>-0.28055022</v>
+      </c>
+      <c r="O92">
+        <v>-0.070137555</v>
+      </c>
+      <c r="P92">
+        <v>-0.210412665</v>
+      </c>
+      <c r="Q92">
+        <v>-0.060412665</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>1.078531598228594</v>
+      </c>
+      <c r="T92">
+        <v>10.63939611257012</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.06801172086792749</v>
+      </c>
+      <c r="W92">
+        <v>0.1961937531234383</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.27204688347171</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2861715376339539</v>
+      </c>
+      <c r="C93">
+        <v>-0.6544602316293024</v>
+      </c>
+      <c r="D93">
+        <v>0.5584797683706976</v>
+      </c>
+      <c r="E93">
+        <v>0.3829400000000001</v>
+      </c>
+      <c r="F93">
+        <v>1.21394</v>
+      </c>
+      <c r="G93">
+        <v>0.001</v>
+      </c>
+      <c r="H93">
+        <v>0.503</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.09</v>
+      </c>
+      <c r="K93">
+        <v>0.15</v>
+      </c>
+      <c r="L93">
+        <v>-0.06</v>
+      </c>
+      <c r="M93">
+        <v>0.223000778</v>
+      </c>
+      <c r="N93">
+        <v>-0.283000778</v>
+      </c>
+      <c r="O93">
+        <v>-0.0707501945</v>
+      </c>
+      <c r="P93">
+        <v>-0.2122505835</v>
+      </c>
+      <c r="Q93">
+        <v>-0.06225058350000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.197335109142883</v>
+      </c>
+      <c r="T93">
+        <v>11.82155123618902</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.06726433931992828</v>
+      </c>
+      <c r="W93">
+        <v>0.1960564591330708</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.2690573572797132</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2879155376339539</v>
+      </c>
+      <c r="C94">
+        <v>-0.6712960478508594</v>
+      </c>
+      <c r="D94">
+        <v>0.5549839521491408</v>
+      </c>
+      <c r="E94">
+        <v>0.3962800000000002</v>
+      </c>
+      <c r="F94">
+        <v>1.22728</v>
+      </c>
+      <c r="G94">
+        <v>0.001</v>
+      </c>
+      <c r="H94">
+        <v>0.503</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.09</v>
+      </c>
+      <c r="K94">
+        <v>0.15</v>
+      </c>
+      <c r="L94">
+        <v>-0.06</v>
+      </c>
+      <c r="M94">
+        <v>0.225451336</v>
+      </c>
+      <c r="N94">
+        <v>-0.2854513360000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.07136283400000001</v>
+      </c>
+      <c r="P94">
+        <v>-0.214088502</v>
+      </c>
+      <c r="Q94">
+        <v>-0.06408850200000005</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.345839497785744</v>
+      </c>
+      <c r="T94">
+        <v>13.29924514071265</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.06653320519688558</v>
+      </c>
+      <c r="W94">
+        <v>0.1959221497946679</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.2661328207875424</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2896595376339539</v>
+      </c>
+      <c r="C95">
+        <v>-0.6880883720368544</v>
+      </c>
+      <c r="D95">
+        <v>0.5515316279631457</v>
+      </c>
+      <c r="E95">
+        <v>0.4096200000000001</v>
+      </c>
+      <c r="F95">
+        <v>1.24062</v>
+      </c>
+      <c r="G95">
+        <v>0.001</v>
+      </c>
+      <c r="H95">
+        <v>0.503</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.09</v>
+      </c>
+      <c r="K95">
+        <v>0.15</v>
+      </c>
+      <c r="L95">
+        <v>-0.06</v>
+      </c>
+      <c r="M95">
+        <v>0.227901894</v>
+      </c>
+      <c r="N95">
+        <v>-0.287901894</v>
+      </c>
+      <c r="O95">
+        <v>-0.0719754735</v>
+      </c>
+      <c r="P95">
+        <v>-0.2159264205</v>
+      </c>
+      <c r="Q95">
+        <v>-0.0659264205</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.536773711755136</v>
+      </c>
+      <c r="T95">
+        <v>15.19913730367161</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.06581779438831692</v>
+      </c>
+      <c r="W95">
+        <v>0.1957907288291338</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.2632711775532677</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2914035376339539</v>
+      </c>
+      <c r="C96">
+        <v>-0.7048380108071978</v>
+      </c>
+      <c r="D96">
+        <v>0.5481219891928024</v>
+      </c>
+      <c r="E96">
+        <v>0.4229600000000002</v>
+      </c>
+      <c r="F96">
+        <v>1.25396</v>
+      </c>
+      <c r="G96">
+        <v>0.001</v>
+      </c>
+      <c r="H96">
+        <v>0.503</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.09</v>
+      </c>
+      <c r="K96">
+        <v>0.15</v>
+      </c>
+      <c r="L96">
+        <v>-0.06</v>
+      </c>
+      <c r="M96">
+        <v>0.230352452</v>
+      </c>
+      <c r="N96">
+        <v>-0.290352452</v>
+      </c>
+      <c r="O96">
+        <v>-0.07258811300000001</v>
+      </c>
+      <c r="P96">
+        <v>-0.217764339</v>
+      </c>
+      <c r="Q96">
+        <v>-0.06776433900000003</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.791352663714325</v>
+      </c>
+      <c r="T96">
+        <v>17.73232685428355</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.06511760508631355</v>
+      </c>
+      <c r="W96">
+        <v>0.1956621040543558</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.2604704203452541</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2931475376339539</v>
+      </c>
+      <c r="C97">
+        <v>-0.721545750957845</v>
+      </c>
+      <c r="D97">
+        <v>0.5447542490421551</v>
+      </c>
+      <c r="E97">
+        <v>0.4363000000000001</v>
+      </c>
+      <c r="F97">
+        <v>1.2673</v>
+      </c>
+      <c r="G97">
+        <v>0.001</v>
+      </c>
+      <c r="H97">
+        <v>0.503</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.09</v>
+      </c>
+      <c r="K97">
+        <v>0.15</v>
+      </c>
+      <c r="L97">
+        <v>-0.06</v>
+      </c>
+      <c r="M97">
+        <v>0.23280301</v>
+      </c>
+      <c r="N97">
+        <v>-0.29280301</v>
+      </c>
+      <c r="O97">
+        <v>-0.07320075250000001</v>
+      </c>
+      <c r="P97">
+        <v>-0.2196022575</v>
+      </c>
+      <c r="Q97">
+        <v>-0.06960225750000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>2.147763196457191</v>
+      </c>
+      <c r="T97">
+        <v>21.27879222514026</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.06443215661172078</v>
+      </c>
+      <c r="W97">
+        <v>0.1955361871695731</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.257728626446883</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2948915376339539</v>
+      </c>
+      <c r="C98">
+        <v>-0.7382123600660853</v>
+      </c>
+      <c r="D98">
+        <v>0.5414276399339147</v>
+      </c>
+      <c r="E98">
+        <v>0.44964</v>
+      </c>
+      <c r="F98">
+        <v>1.28064</v>
+      </c>
+      <c r="G98">
+        <v>0.001</v>
+      </c>
+      <c r="H98">
+        <v>0.503</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.09</v>
+      </c>
+      <c r="K98">
+        <v>0.15</v>
+      </c>
+      <c r="L98">
+        <v>-0.06</v>
+      </c>
+      <c r="M98">
+        <v>0.235253568</v>
+      </c>
+      <c r="N98">
+        <v>-0.295253568</v>
+      </c>
+      <c r="O98">
+        <v>-0.07381339200000001</v>
+      </c>
+      <c r="P98">
+        <v>-0.221440176</v>
+      </c>
+      <c r="Q98">
+        <v>-0.07144017600000002</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.682378995571483</v>
+      </c>
+      <c r="T98">
+        <v>26.59849028142527</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.06376098831368203</v>
+      </c>
+      <c r="W98">
+        <v>0.1954128935532234</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.2550439532547282</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2966355376339538</v>
+      </c>
+      <c r="C99">
+        <v>-0.7548385870737857</v>
+      </c>
+      <c r="D99">
+        <v>0.5381414129262144</v>
+      </c>
+      <c r="E99">
+        <v>0.4629800000000002</v>
+      </c>
+      <c r="F99">
+        <v>1.29398</v>
+      </c>
+      <c r="G99">
+        <v>0.001</v>
+      </c>
+      <c r="H99">
+        <v>0.503</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.09</v>
+      </c>
+      <c r="K99">
+        <v>0.15</v>
+      </c>
+      <c r="L99">
+        <v>-0.06</v>
+      </c>
+      <c r="M99">
+        <v>0.237704126</v>
+      </c>
+      <c r="N99">
+        <v>-0.297704126</v>
+      </c>
+      <c r="O99">
+        <v>-0.0744260315</v>
+      </c>
+      <c r="P99">
+        <v>-0.2232780945</v>
+      </c>
+      <c r="Q99">
+        <v>-0.07327809450000003</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.573405327428644</v>
+      </c>
+      <c r="T99">
+        <v>35.46465370856703</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.06310365853725231</v>
+      </c>
+      <c r="W99">
+        <v>0.1952921420732932</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.2524146341490092</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2983795376339539</v>
+      </c>
+      <c r="C100">
+        <v>-0.7714251628495215</v>
+      </c>
+      <c r="D100">
+        <v>0.5348948371504786</v>
+      </c>
+      <c r="E100">
+        <v>0.4763200000000001</v>
+      </c>
+      <c r="F100">
+        <v>1.30732</v>
+      </c>
+      <c r="G100">
+        <v>0.001</v>
+      </c>
+      <c r="H100">
+        <v>0.503</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.09</v>
+      </c>
+      <c r="K100">
+        <v>0.15</v>
+      </c>
+      <c r="L100">
+        <v>-0.06</v>
+      </c>
+      <c r="M100">
+        <v>0.240154684</v>
+      </c>
+      <c r="N100">
+        <v>-0.300154684</v>
+      </c>
+      <c r="O100">
+        <v>-0.075038671</v>
+      </c>
+      <c r="P100">
+        <v>-0.225116013</v>
+      </c>
+      <c r="Q100">
+        <v>-0.07511601300000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>5.355457991142965</v>
+      </c>
+      <c r="T100">
+        <v>53.19698056285054</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.06245974365421912</v>
+      </c>
+      <c r="W100">
+        <v>0.19517385490928</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.2498389746168765</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.3001235376339539</v>
+      </c>
+      <c r="C101">
+        <v>-0.7879728007304848</v>
+      </c>
+      <c r="D101">
+        <v>0.5316871992695154</v>
+      </c>
+      <c r="E101">
+        <v>0.4896600000000002</v>
+      </c>
+      <c r="F101">
+        <v>1.32066</v>
+      </c>
+      <c r="G101">
+        <v>0.001</v>
+      </c>
+      <c r="H101">
+        <v>0.503</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.09</v>
+      </c>
+      <c r="K101">
+        <v>0.15</v>
+      </c>
+      <c r="L101">
+        <v>-0.06</v>
+      </c>
+      <c r="M101">
+        <v>0.242605242</v>
+      </c>
+      <c r="N101">
+        <v>-0.3026052420000001</v>
+      </c>
+      <c r="O101">
+        <v>-0.07565131050000001</v>
+      </c>
+      <c r="P101">
+        <v>-0.2269539315</v>
+      </c>
+      <c r="Q101">
+        <v>-0.07695393150000004</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>10.70161598228593</v>
+      </c>
+      <c r="T101">
+        <v>106.3939611257011</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.06182883715266135</v>
+      </c>
+      <c r="W101">
+        <v>0.1950579573849439</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.2473153486106454</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
